--- a/3-JavaScript/Mashq/JS_KORIN_vazifa.xlsx
+++ b/3-JavaScript/Mashq/JS_KORIN_vazifa.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5261" uniqueCount="3081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="3085">
   <si>
     <t>№</t>
   </si>
@@ -9348,7 +9348,19 @@
     <t>Vazifa 9 Vazifa 10</t>
   </si>
   <si>
-    <t>Vazifa 11 Vazifa 12</t>
+    <t>Vazifa 11 Vazifa 12 Vazifa 13</t>
+  </si>
+  <si>
+    <t>Vazifa 14</t>
+  </si>
+  <si>
+    <t>Vazifa 15 Vazifa 16</t>
+  </si>
+  <si>
+    <t>sindow</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -9463,7 +9475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9494,8 +9506,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -9513,7 +9531,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color theme="0"/>
       </left>
       <right/>
@@ -9523,18 +9581,86 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color theme="0" tint="-0.14999847407452621"/>
+      <right style="medium">
+        <color theme="0"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9553,8 +9679,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9581,18 +9707,46 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9645,7 +9799,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9687,7 +9841,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9729,7 +9883,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9771,7 +9925,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9813,7 +9967,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9855,7 +10009,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9897,7 +10051,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -24354,10 +24508,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BN176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BB14" sqref="BB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -24398,36 +24552,39 @@
     <col min="35" max="35" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.5703125" style="8" customWidth="1"/>
+    <col min="38" max="38" width="33" style="8" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="41.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="1.7109375" style="2" customWidth="1"/>
-    <col min="42" max="42" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="49.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="44.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="41.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="41.140625" style="2" customWidth="1"/>
-    <col min="48" max="48" width="7.7109375" style="2" customWidth="1"/>
-    <col min="49" max="49" width="41.140625" style="2" customWidth="1"/>
-    <col min="50" max="50" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="40" style="5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.7109375" style="2" customWidth="1"/>
-    <col min="60" max="60" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="32.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="16384" width="9.140625" style="2"/>
+    <col min="46" max="46" width="41.140625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="5" style="2" customWidth="1"/>
+    <col min="48" max="48" width="41.140625" style="2" customWidth="1"/>
+    <col min="49" max="49" width="7.7109375" style="2" customWidth="1"/>
+    <col min="50" max="50" width="41.140625" style="2" customWidth="1"/>
+    <col min="51" max="51" width="2.42578125" style="2" customWidth="1"/>
+    <col min="52" max="52" width="26.28515625" style="2" customWidth="1"/>
+    <col min="53" max="53" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="45" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="40" style="5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.7109375" style="2" customWidth="1"/>
+    <col min="63" max="63" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="26.25">
+    <row r="1" spans="1:66" ht="26.25">
       <c r="B1" s="19" t="s">
         <v>2774</v>
       </c>
@@ -24489,17 +24646,20 @@
       <c r="BB1" s="23"/>
       <c r="BC1" s="23"/>
       <c r="BD1" s="23"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="25" t="s">
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="25" t="s">
         <v>3069</v>
       </c>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
       <c r="BK1" s="25"/>
-    </row>
-    <row r="3" spans="1:63" s="3" customFormat="1" ht="26.25">
+      <c r="BL1" s="25"/>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+    </row>
+    <row r="3" spans="1:66" s="3" customFormat="1" ht="27" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -24580,31 +24740,31 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>844</v>
+        <v>3083</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>1016</v>
+        <v>860</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>1028</v>
+        <v>865</v>
       </c>
       <c r="AH3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>1075</v>
+        <v>869</v>
       </c>
       <c r="AJ3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>1125</v>
+        <v>881</v>
       </c>
       <c r="AL3" s="10"/>
       <c r="AM3" s="3" t="s">
@@ -24626,56 +24786,59 @@
         <v>1427</v>
       </c>
       <c r="AU3" s="10"/>
-      <c r="AV3" s="3" t="s">
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>2386</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>2422</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BE3" s="14" t="s">
+      <c r="BH3" s="14" t="s">
         <v>1665</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BI3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>2430</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="BK3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BL3" s="3" t="s">
         <v>2496</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BM3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="BN3" s="3" t="s">
         <v>2526</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="26.25" customHeight="1">
+    <row r="4" spans="1:66" ht="26.25" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -24736,28 +24899,28 @@
       <c r="T4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="27" t="s">
+      <c r="V4" s="42" t="s">
         <v>3078</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="28">
         <v>1</v>
       </c>
-      <c r="X4" s="26" t="s">
+      <c r="X4" s="38" t="s">
         <v>797</v>
       </c>
       <c r="Y4" s="2">
         <v>1</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AA4" s="40" t="s">
         <v>3073</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="28">
         <v>1</v>
       </c>
-      <c r="AC4" s="26" t="s">
+      <c r="AC4" s="38" t="s">
         <v>845</v>
       </c>
       <c r="AD4" s="2">
@@ -24781,85 +24944,88 @@
       <c r="AJ4" s="2">
         <v>1</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK4" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="AL4" s="28" t="s">
+      <c r="AL4" s="40" t="s">
         <v>3074</v>
       </c>
-      <c r="AM4" s="8">
+      <c r="AM4" s="28">
         <v>1</v>
       </c>
-      <c r="AN4" s="26" t="s">
+      <c r="AN4" s="38" t="s">
         <v>1205</v>
       </c>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="29" t="s">
+      <c r="AP4" s="27" t="s">
         <v>3075</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4" s="28">
         <v>1</v>
       </c>
-      <c r="AR4" s="26" t="s">
+      <c r="AR4" s="38" t="s">
         <v>1382</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
-      <c r="AT4" s="9" t="s">
+      <c r="AT4" s="18" t="s">
         <v>2768</v>
       </c>
       <c r="AU4" s="9"/>
-      <c r="AV4" s="2">
+      <c r="AW4" s="2">
         <v>1</v>
       </c>
-      <c r="AW4" s="18" t="s">
+      <c r="AX4" s="18" t="s">
         <v>3071</v>
       </c>
-      <c r="AX4" s="8">
+      <c r="AZ4" s="27" t="s">
+        <v>3082</v>
+      </c>
+      <c r="BA4" s="28">
         <v>1</v>
       </c>
-      <c r="AY4" s="4" t="s">
-        <v>1700</v>
-      </c>
-      <c r="AZ4" s="2">
+      <c r="BB4" s="29" t="s">
+        <v>1711</v>
+      </c>
+      <c r="BC4" s="2">
         <v>1</v>
       </c>
-      <c r="BA4" s="4" t="s">
+      <c r="BD4" s="4" t="s">
         <v>1827</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BE4" s="2">
         <v>1</v>
       </c>
-      <c r="BC4" s="4" t="s">
+      <c r="BF4" s="4" t="s">
         <v>1668</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BG4" s="2">
         <v>1</v>
       </c>
-      <c r="BE4" s="15" t="s">
+      <c r="BH4" s="15" t="s">
         <v>1666</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BI4" s="2">
         <v>1</v>
       </c>
-      <c r="BG4" s="4" t="s">
+      <c r="BJ4" s="4" t="s">
         <v>2439</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BK4" s="2">
         <v>1</v>
       </c>
-      <c r="BI4" s="4" t="s">
+      <c r="BL4" s="4" t="s">
         <v>2497</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BM4" s="2">
         <v>1</v>
       </c>
-      <c r="BK4" s="4" t="s">
+      <c r="BN4" s="4" t="s">
         <v>2432</v>
       </c>
     </row>
-    <row r="5" spans="1:63" ht="26.25" customHeight="1">
+    <row r="5" spans="1:66" ht="26.25" customHeight="1" thickBot="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -24920,24 +25086,24 @@
       <c r="T5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="27"/>
-      <c r="W5" s="2">
+      <c r="V5" s="43"/>
+      <c r="W5" s="8">
         <v>2</v>
       </c>
-      <c r="X5" s="26" t="s">
+      <c r="X5" s="44" t="s">
         <v>793</v>
       </c>
       <c r="Y5" s="2">
         <v>2</v>
       </c>
-      <c r="Z5" s="7" t="s">
+      <c r="Z5" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="AA5" s="28"/>
+      <c r="AA5" s="47"/>
       <c r="AB5" s="8">
         <v>2</v>
       </c>
-      <c r="AC5" s="26" t="s">
+      <c r="AC5" s="44" t="s">
         <v>853</v>
       </c>
       <c r="AD5" s="2">
@@ -24961,81 +25127,83 @@
       <c r="AJ5" s="2">
         <v>2</v>
       </c>
-      <c r="AK5" s="7" t="s">
+      <c r="AK5" s="9" t="s">
         <v>1127</v>
       </c>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="8">
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="33">
         <v>2</v>
       </c>
-      <c r="AN5" s="26" t="s">
+      <c r="AN5" s="39" t="s">
         <v>1206</v>
       </c>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="2">
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="33">
         <v>2</v>
       </c>
-      <c r="AR5" s="26" t="s">
+      <c r="AR5" s="39" t="s">
         <v>1383</v>
       </c>
       <c r="AS5" s="2">
         <v>2</v>
       </c>
-      <c r="AT5" s="9" t="s">
+      <c r="AT5" s="18" t="s">
         <v>2766</v>
       </c>
       <c r="AU5" s="9"/>
-      <c r="AV5" s="2">
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="2">
         <v>2</v>
       </c>
-      <c r="AW5" s="9" t="s">
+      <c r="AX5" s="18" t="s">
         <v>1415</v>
       </c>
-      <c r="AX5" s="8">
+      <c r="AZ5" s="30"/>
+      <c r="BA5" s="8">
         <v>2</v>
       </c>
-      <c r="AY5" s="4" t="s">
-        <v>1701</v>
-      </c>
-      <c r="AZ5" s="2">
+      <c r="BB5" s="31" t="s">
+        <v>1745</v>
+      </c>
+      <c r="BC5" s="2">
         <v>2</v>
       </c>
-      <c r="BA5" s="4" t="s">
+      <c r="BD5" s="4" t="s">
         <v>1830</v>
       </c>
-      <c r="BB5" s="2">
+      <c r="BE5" s="2">
         <v>2</v>
       </c>
-      <c r="BC5" s="4" t="s">
+      <c r="BF5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="2">
+      <c r="BG5" s="2">
         <v>2</v>
       </c>
-      <c r="BE5" s="15" t="s">
+      <c r="BH5" s="15" t="s">
         <v>1667</v>
       </c>
-      <c r="BF5" s="2">
+      <c r="BI5" s="2">
         <v>2</v>
       </c>
-      <c r="BG5" s="4" t="s">
+      <c r="BJ5" s="4" t="s">
         <v>2432</v>
       </c>
-      <c r="BH5" s="2">
+      <c r="BK5" s="2">
         <v>2</v>
       </c>
-      <c r="BI5" s="4" t="s">
+      <c r="BL5" s="4" t="s">
         <v>2498</v>
       </c>
-      <c r="BJ5" s="2">
+      <c r="BM5" s="2">
         <v>2</v>
       </c>
-      <c r="BK5" s="4" t="s">
+      <c r="BN5" s="4" t="s">
         <v>2527</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="26.25">
+    <row r="6" spans="1:66" ht="27" thickBot="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -25091,18 +25259,19 @@
       <c r="T6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="27"/>
-      <c r="W6" s="2">
+      <c r="V6" s="45"/>
+      <c r="W6" s="33">
         <v>3</v>
       </c>
-      <c r="X6" s="26" t="s">
+      <c r="X6" s="39" t="s">
         <v>788</v>
       </c>
-      <c r="AA6" s="28"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="47"/>
       <c r="AB6" s="8">
         <v>3</v>
       </c>
-      <c r="AC6" s="26" t="s">
+      <c r="AC6" s="44" t="s">
         <v>878</v>
       </c>
       <c r="AD6" s="2">
@@ -25147,60 +25316,62 @@
       <c r="AS6" s="2">
         <v>3</v>
       </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AT6" s="18" t="s">
         <v>2764</v>
       </c>
       <c r="AU6" s="9"/>
-      <c r="AV6" s="2">
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="2">
         <v>3</v>
       </c>
-      <c r="AW6" s="9" t="s">
+      <c r="AX6" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AX6" s="8">
+      <c r="AZ6" s="30"/>
+      <c r="BA6" s="8">
         <v>3</v>
       </c>
-      <c r="AY6" s="4" t="s">
-        <v>1702</v>
-      </c>
-      <c r="AZ6" s="2">
+      <c r="BB6" s="31" t="s">
+        <v>1746</v>
+      </c>
+      <c r="BC6" s="2">
         <v>3</v>
       </c>
-      <c r="BA6" s="4" t="s">
+      <c r="BD6" s="4" t="s">
         <v>1831</v>
       </c>
-      <c r="BB6" s="2">
+      <c r="BE6" s="2">
         <v>3</v>
       </c>
-      <c r="BC6" s="4" t="s">
+      <c r="BF6" s="4" t="s">
         <v>2423</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BG6" s="2">
         <v>3</v>
       </c>
-      <c r="BE6" s="15" t="s">
+      <c r="BH6" s="15" t="s">
         <v>1668</v>
       </c>
-      <c r="BF6" s="2">
+      <c r="BI6" s="2">
         <v>3</v>
       </c>
-      <c r="BG6" s="4" t="s">
+      <c r="BJ6" s="4" t="s">
         <v>2433</v>
       </c>
-      <c r="BH6" s="2">
+      <c r="BK6" s="2">
         <v>3</v>
       </c>
-      <c r="BI6" s="4" t="s">
+      <c r="BL6" s="4" t="s">
         <v>2499</v>
       </c>
-      <c r="BJ6" s="2">
+      <c r="BM6" s="2">
         <v>3</v>
       </c>
-      <c r="BK6" s="4" t="s">
+      <c r="BN6" s="4" t="s">
         <v>2528</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="26.25">
+    <row r="7" spans="1:66" ht="27" thickBot="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -25256,20 +25427,21 @@
       <c r="T7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="31" t="s">
+      <c r="V7" s="46" t="s">
         <v>3079</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="36">
         <v>4</v>
       </c>
-      <c r="X7" s="26" t="s">
+      <c r="X7" s="37" t="s">
         <v>792</v>
       </c>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="8">
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="33">
         <v>4</v>
       </c>
-      <c r="AC7" s="26" t="s">
+      <c r="AC7" s="39" t="s">
         <v>877</v>
       </c>
       <c r="AD7" s="2">
@@ -25304,60 +25476,64 @@
         <v>851</v>
       </c>
       <c r="AO7" s="3"/>
-      <c r="AP7" s="30" t="s">
+      <c r="AP7" s="35" t="s">
         <v>3076</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AQ7" s="36">
         <v>4</v>
       </c>
-      <c r="AR7" s="26" t="s">
+      <c r="AR7" s="37" t="s">
         <v>3068</v>
       </c>
       <c r="AS7" s="2">
         <v>4</v>
       </c>
-      <c r="AT7" s="9" t="s">
+      <c r="AT7" s="18" t="s">
         <v>2762</v>
       </c>
       <c r="AU7" s="9"/>
-      <c r="AV7" s="2">
+      <c r="AV7" s="35" t="s">
+        <v>3080</v>
+      </c>
+      <c r="AW7" s="36">
         <v>4</v>
       </c>
-      <c r="AW7" s="9" t="s">
-        <v>1370</v>
-      </c>
-      <c r="AX7" s="8">
+      <c r="AX7" s="37" t="s">
+        <v>3072</v>
+      </c>
+      <c r="AZ7" s="32"/>
+      <c r="BA7" s="33">
         <v>4</v>
       </c>
-      <c r="AY7" s="4" t="s">
-        <v>1703</v>
-      </c>
-      <c r="AZ7" s="2">
+      <c r="BB7" s="34" t="s">
+        <v>1761</v>
+      </c>
+      <c r="BC7" s="2">
         <v>4</v>
       </c>
-      <c r="BA7" s="4" t="s">
+      <c r="BD7" s="4" t="s">
         <v>1826</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BG7" s="2">
         <v>4</v>
       </c>
-      <c r="BE7" s="15" t="s">
+      <c r="BH7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BI7" s="2">
         <v>4</v>
       </c>
-      <c r="BG7" s="4" t="s">
+      <c r="BJ7" s="4" t="s">
         <v>2431</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="BM7" s="2">
         <v>4</v>
       </c>
-      <c r="BK7" s="4" t="s">
+      <c r="BN7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="26.25">
+    <row r="8" spans="1:66" ht="27" thickBot="1">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -25435,13 +25611,10 @@
       <c r="AM8" s="8">
         <v>5</v>
       </c>
-      <c r="AN8" s="13" t="s">
+      <c r="AN8" s="26" t="s">
         <v>1181</v>
       </c>
       <c r="AO8" s="3"/>
-      <c r="AP8" s="30" t="s">
-        <v>3080</v>
-      </c>
       <c r="AQ8" s="2">
         <v>5</v>
       </c>
@@ -25451,48 +25624,51 @@
       <c r="AS8" s="2">
         <v>5</v>
       </c>
-      <c r="AT8" s="9" t="s">
+      <c r="AT8" s="18" t="s">
         <v>2759</v>
       </c>
       <c r="AU8" s="9"/>
-      <c r="AV8" s="2">
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="2">
         <v>5</v>
       </c>
-      <c r="AW8" s="9" t="s">
-        <v>3072</v>
-      </c>
-      <c r="AX8" s="8">
+      <c r="AX8" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="8">
         <v>5</v>
       </c>
-      <c r="AY8" s="4" t="s">
-        <v>1704</v>
-      </c>
-      <c r="AZ8" s="2">
+      <c r="BB8" s="13" t="s">
+        <v>1715</v>
+      </c>
+      <c r="BC8" s="2">
         <v>5</v>
       </c>
-      <c r="BA8" s="4" t="s">
+      <c r="BD8" s="4" t="s">
         <v>1828</v>
       </c>
-      <c r="BD8" s="2">
+      <c r="BG8" s="2">
         <v>5</v>
       </c>
-      <c r="BE8" s="15" t="s">
+      <c r="BH8" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="BF8" s="2">
+      <c r="BI8" s="2">
         <v>5</v>
       </c>
-      <c r="BG8" s="4" t="s">
+      <c r="BJ8" s="4" t="s">
         <v>2432</v>
       </c>
-      <c r="BJ8" s="2">
+      <c r="BM8" s="2">
         <v>5</v>
       </c>
-      <c r="BK8" s="4" t="s">
+      <c r="BN8" s="4" t="s">
         <v>2529</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="26.25">
+    <row r="9" spans="1:66" ht="27" thickBot="1">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -25566,63 +25742,62 @@
       <c r="AK9" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="AL9" s="9"/>
       <c r="AM9" s="8">
         <v>6</v>
       </c>
-      <c r="AN9" s="4" t="s">
-        <v>1159</v>
+      <c r="AN9" s="26" t="s">
+        <v>1155</v>
       </c>
       <c r="AO9" s="4"/>
-      <c r="AP9" s="30" t="s">
+      <c r="AP9" s="35" t="s">
         <v>3077</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AQ9" s="36">
         <v>6</v>
       </c>
-      <c r="AR9" s="26" t="s">
+      <c r="AR9" s="37" t="s">
         <v>1427</v>
       </c>
       <c r="AS9" s="2">
         <v>6</v>
       </c>
-      <c r="AT9" s="9" t="s">
+      <c r="AT9" s="18" t="s">
         <v>2756</v>
       </c>
       <c r="AU9" s="9"/>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="8">
+      <c r="AV9" s="9"/>
+      <c r="BA9" s="8">
         <v>6</v>
       </c>
-      <c r="AY9" s="4" t="s">
-        <v>1705</v>
-      </c>
-      <c r="AZ9" s="2">
+      <c r="BB9" s="13" t="s">
+        <v>1713</v>
+      </c>
+      <c r="BC9" s="2">
         <v>6</v>
       </c>
-      <c r="BA9" s="4" t="s">
+      <c r="BD9" s="4" t="s">
         <v>1833</v>
       </c>
-      <c r="BD9" s="2">
+      <c r="BG9" s="2">
         <v>6</v>
       </c>
-      <c r="BE9" s="15" t="s">
+      <c r="BH9" s="15" t="s">
         <v>1669</v>
       </c>
-      <c r="BF9" s="2">
+      <c r="BI9" s="2">
         <v>6</v>
       </c>
-      <c r="BG9" s="4" t="s">
+      <c r="BJ9" s="4" t="s">
         <v>2433</v>
       </c>
-      <c r="BJ9" s="2">
+      <c r="BM9" s="2">
         <v>6</v>
       </c>
-      <c r="BK9" s="4" t="s">
+      <c r="BN9" s="4" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:66" ht="27" thickBot="1">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -25694,51 +25869,54 @@
       <c r="AM10" s="8">
         <v>7</v>
       </c>
-      <c r="AN10" s="4" t="s">
-        <v>1160</v>
+      <c r="AN10" s="13" t="s">
+        <v>1199</v>
       </c>
       <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="2">
+      <c r="AP10" s="35" t="s">
+        <v>3081</v>
+      </c>
+      <c r="AQ10" s="36">
         <v>7</v>
       </c>
-      <c r="AR10" s="4" t="s">
-        <v>1155</v>
+      <c r="AR10" s="37" t="s">
+        <v>1354</v>
       </c>
       <c r="AS10" s="2">
         <v>7</v>
       </c>
-      <c r="AT10" s="9" t="s">
+      <c r="AT10" s="18" t="s">
         <v>2754</v>
       </c>
       <c r="AU10" s="9"/>
       <c r="AV10" s="9"/>
-      <c r="AX10" s="8">
+      <c r="AW10" s="9"/>
+      <c r="BA10" s="2">
         <v>7</v>
       </c>
-      <c r="AY10" s="4" t="s">
-        <v>1706</v>
-      </c>
-      <c r="AZ10" s="2">
+      <c r="BB10" s="13" t="s">
+        <v>1714</v>
+      </c>
+      <c r="BC10" s="2">
         <v>7</v>
       </c>
-      <c r="BA10" s="4" t="s">
+      <c r="BD10" s="4" t="s">
         <v>1852</v>
       </c>
-      <c r="BD10" s="2">
+      <c r="BG10" s="2">
         <v>7</v>
       </c>
-      <c r="BE10" s="15" t="s">
+      <c r="BH10" s="15" t="s">
         <v>1670</v>
       </c>
-      <c r="BF10" s="2">
+      <c r="BI10" s="2">
         <v>7</v>
       </c>
-      <c r="BG10" s="4" t="s">
+      <c r="BJ10" s="4" t="s">
         <v>2434</v>
       </c>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:66">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -25811,50 +25989,52 @@
         <v>8</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
       <c r="AQ11" s="2">
         <v>8</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>1358</v>
+        <v>1155</v>
       </c>
       <c r="AS11" s="2">
         <v>8</v>
       </c>
-      <c r="AT11" s="9" t="s">
+      <c r="AT11" s="18" t="s">
         <v>2751</v>
       </c>
       <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
-      <c r="AX11" s="8">
+      <c r="AV11" s="9" t="s">
+        <v>3084</v>
+      </c>
+      <c r="AW11" s="9"/>
+      <c r="BA11" s="8">
         <v>8</v>
       </c>
-      <c r="AY11" s="4" t="s">
-        <v>1707</v>
-      </c>
-      <c r="AZ11" s="2">
+      <c r="BB11" s="4" t="s">
+        <v>1741</v>
+      </c>
+      <c r="BC11" s="2">
         <v>8</v>
       </c>
-      <c r="BA11" s="4" t="s">
+      <c r="BD11" s="4" t="s">
         <v>1835</v>
       </c>
-      <c r="BD11" s="2">
+      <c r="BG11" s="2">
         <v>8</v>
       </c>
-      <c r="BE11" s="15" t="s">
+      <c r="BH11" s="15" t="s">
         <v>1671</v>
       </c>
-      <c r="BF11" s="2">
+      <c r="BI11" s="2">
         <v>8</v>
       </c>
-      <c r="BG11" s="4" t="s">
+      <c r="BJ11" s="4" t="s">
         <v>2435</v>
       </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:66">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -25927,7 +26107,7 @@
         <v>9</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
@@ -25935,43 +26115,46 @@
         <v>9</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="AS12" s="2">
         <v>9</v>
       </c>
-      <c r="AT12" s="9" t="s">
+      <c r="AT12" s="18" t="s">
         <v>2748</v>
       </c>
       <c r="AU12" s="9"/>
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
-      <c r="AX12" s="8">
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="2">
         <v>9</v>
       </c>
-      <c r="AY12" s="4" t="s">
-        <v>1708</v>
-      </c>
-      <c r="AZ12" s="2">
+      <c r="BB12" s="4" t="s">
+        <v>1742</v>
+      </c>
+      <c r="BC12" s="2">
         <v>9</v>
       </c>
-      <c r="BA12" s="4" t="s">
+      <c r="BD12" s="4" t="s">
         <v>1829</v>
       </c>
-      <c r="BD12" s="2">
+      <c r="BG12" s="2">
         <v>9</v>
       </c>
-      <c r="BE12" s="15" t="s">
+      <c r="BH12" s="15" t="s">
         <v>1672</v>
       </c>
-      <c r="BF12" s="2">
+      <c r="BI12" s="2">
         <v>9</v>
       </c>
-      <c r="BG12" s="4" t="s">
+      <c r="BJ12" s="4" t="s">
         <v>2436</v>
       </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:66">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -26044,7 +26227,7 @@
         <v>10</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
@@ -26052,37 +26235,40 @@
         <v>10</v>
       </c>
       <c r="AR13" s="4" t="s">
-        <v>1354</v>
+        <v>1359</v>
       </c>
       <c r="AS13" s="2">
         <v>10</v>
       </c>
-      <c r="AT13" s="9" t="s">
+      <c r="AT13" s="18" t="s">
         <v>1781</v>
       </c>
       <c r="AU13" s="9"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
-      <c r="AX13" s="8">
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="8">
         <v>10</v>
       </c>
-      <c r="AY13" s="4" t="s">
-        <v>1709</v>
-      </c>
-      <c r="AZ13" s="2">
+      <c r="BB13" s="4" t="s">
+        <v>1743</v>
+      </c>
+      <c r="BC13" s="2">
         <v>10</v>
       </c>
-      <c r="BA13" s="4" t="s">
+      <c r="BD13" s="4" t="s">
         <v>1839</v>
       </c>
-      <c r="BF13" s="2">
+      <c r="BI13" s="2">
         <v>10</v>
       </c>
-      <c r="BG13" s="4" t="s">
+      <c r="BJ13" s="4" t="s">
         <v>2437</v>
       </c>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:66">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -26155,7 +26341,7 @@
         <v>11</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
@@ -26168,32 +26354,35 @@
       <c r="AS14" s="2">
         <v>11</v>
       </c>
-      <c r="AT14" s="9" t="s">
+      <c r="AT14" s="18" t="s">
         <v>2743</v>
       </c>
       <c r="AU14" s="9"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
-      <c r="AX14" s="8">
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="2">
         <v>11</v>
       </c>
-      <c r="AY14" s="4" t="s">
-        <v>1710</v>
-      </c>
-      <c r="AZ14" s="2">
+      <c r="BB14" s="4" t="s">
+        <v>1744</v>
+      </c>
+      <c r="BC14" s="2">
         <v>11</v>
       </c>
-      <c r="BA14" s="4" t="s">
+      <c r="BD14" s="4" t="s">
         <v>1841</v>
       </c>
-      <c r="BF14" s="2">
+      <c r="BI14" s="2">
         <v>11</v>
       </c>
-      <c r="BG14" s="4" t="s">
+      <c r="BJ14" s="4" t="s">
         <v>2438</v>
       </c>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:66">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -26266,7 +26455,7 @@
         <v>12</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
@@ -26279,32 +26468,35 @@
       <c r="AS15" s="2">
         <v>12</v>
       </c>
-      <c r="AT15" s="9" t="s">
+      <c r="AT15" s="18" t="s">
         <v>2740</v>
       </c>
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
       <c r="AW15" s="9"/>
-      <c r="AX15" s="8">
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="8">
         <v>12</v>
       </c>
-      <c r="AY15" s="4" t="s">
-        <v>1711</v>
-      </c>
-      <c r="AZ15" s="2">
+      <c r="BB15" s="4" t="s">
+        <v>1747</v>
+      </c>
+      <c r="BC15" s="2">
         <v>12</v>
       </c>
-      <c r="BA15" s="4" t="s">
+      <c r="BD15" s="4" t="s">
         <v>1836</v>
       </c>
-      <c r="BF15" s="2">
+      <c r="BI15" s="2">
         <v>12</v>
       </c>
-      <c r="BG15" s="4" t="s">
+      <c r="BJ15" s="4" t="s">
         <v>2431</v>
       </c>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:66">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -26364,7 +26556,7 @@
         <v>13</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
@@ -26377,32 +26569,35 @@
       <c r="AS16" s="2">
         <v>13</v>
       </c>
-      <c r="AT16" s="9" t="s">
+      <c r="AT16" s="18" t="s">
         <v>2737</v>
       </c>
       <c r="AU16" s="9"/>
       <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
-      <c r="AX16" s="8">
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="2">
         <v>13</v>
       </c>
-      <c r="AY16" s="4" t="s">
-        <v>1712</v>
-      </c>
-      <c r="AZ16" s="2">
+      <c r="BB16" s="13" t="s">
+        <v>1700</v>
+      </c>
+      <c r="BC16" s="2">
         <v>13</v>
       </c>
-      <c r="BA16" s="4" t="s">
+      <c r="BD16" s="4" t="s">
         <v>1843</v>
       </c>
-      <c r="BF16" s="2">
+      <c r="BI16" s="2">
         <v>13</v>
       </c>
-      <c r="BG16" s="4" t="s">
+      <c r="BJ16" s="4" t="s">
         <v>2440</v>
       </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:62">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -26462,7 +26657,7 @@
         <v>14</v>
       </c>
       <c r="AN17" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
@@ -26475,32 +26670,35 @@
       <c r="AS17" s="2">
         <v>14</v>
       </c>
-      <c r="AT17" s="9" t="s">
+      <c r="AT17" s="18" t="s">
         <v>2736</v>
       </c>
       <c r="AU17" s="9"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
-      <c r="AX17" s="8">
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="8">
         <v>14</v>
       </c>
-      <c r="AY17" s="4" t="s">
-        <v>1713</v>
-      </c>
-      <c r="AZ17" s="2">
+      <c r="BB17" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="BC17" s="2">
         <v>14</v>
       </c>
-      <c r="BA17" s="4" t="s">
+      <c r="BD17" s="4" t="s">
         <v>1844</v>
       </c>
-      <c r="BF17" s="2">
+      <c r="BI17" s="2">
         <v>14</v>
       </c>
-      <c r="BG17" s="4" t="s">
+      <c r="BJ17" s="4" t="s">
         <v>2441</v>
       </c>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:62">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -26560,7 +26758,7 @@
         <v>15</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
@@ -26573,32 +26771,35 @@
       <c r="AS18" s="2">
         <v>15</v>
       </c>
-      <c r="AT18" s="9" t="s">
+      <c r="AT18" s="18" t="s">
         <v>2733</v>
       </c>
       <c r="AU18" s="9"/>
       <c r="AV18" s="9"/>
       <c r="AW18" s="9"/>
-      <c r="AX18" s="8">
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="2">
         <v>15</v>
       </c>
-      <c r="AY18" s="4" t="s">
-        <v>1714</v>
-      </c>
-      <c r="AZ18" s="2">
+      <c r="BB18" s="13" t="s">
+        <v>1755</v>
+      </c>
+      <c r="BC18" s="2">
         <v>15</v>
       </c>
-      <c r="BA18" s="4" t="s">
+      <c r="BD18" s="4" t="s">
         <v>1845</v>
       </c>
-      <c r="BF18" s="2">
+      <c r="BI18" s="2">
         <v>15</v>
       </c>
-      <c r="BG18" s="4" t="s">
+      <c r="BJ18" s="4" t="s">
         <v>2442</v>
       </c>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:62">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -26658,7 +26859,7 @@
         <v>16</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
@@ -26671,32 +26872,35 @@
       <c r="AS19" s="2">
         <v>16</v>
       </c>
-      <c r="AT19" s="9" t="s">
+      <c r="AT19" s="18" t="s">
         <v>2730</v>
       </c>
       <c r="AU19" s="9"/>
       <c r="AV19" s="9"/>
       <c r="AW19" s="9"/>
-      <c r="AX19" s="8">
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="8">
         <v>16</v>
       </c>
-      <c r="AY19" s="4" t="s">
-        <v>1715</v>
-      </c>
-      <c r="AZ19" s="2">
+      <c r="BB19" s="13" t="s">
+        <v>1756</v>
+      </c>
+      <c r="BC19" s="2">
         <v>16</v>
       </c>
-      <c r="BA19" s="4" t="s">
+      <c r="BD19" s="4" t="s">
         <v>1855</v>
       </c>
-      <c r="BF19" s="2">
+      <c r="BI19" s="2">
         <v>16</v>
       </c>
-      <c r="BG19" s="4" t="s">
+      <c r="BJ19" s="4" t="s">
         <v>2443</v>
       </c>
     </row>
-    <row r="20" spans="1:59">
+    <row r="20" spans="1:62">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -26750,7 +26954,7 @@
         <v>17</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
@@ -26763,32 +26967,35 @@
       <c r="AS20" s="2">
         <v>17</v>
       </c>
-      <c r="AT20" s="9" t="s">
+      <c r="AT20" s="18" t="s">
         <v>2728</v>
       </c>
       <c r="AU20" s="9"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="9"/>
-      <c r="AX20" s="8">
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="2">
         <v>17</v>
       </c>
-      <c r="AY20" s="4" t="s">
-        <v>1716</v>
-      </c>
-      <c r="AZ20" s="2">
+      <c r="BB20" s="4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="BC20" s="2">
         <v>17</v>
       </c>
-      <c r="BA20" s="4" t="s">
+      <c r="BD20" s="4" t="s">
         <v>1838</v>
       </c>
-      <c r="BF20" s="2">
+      <c r="BI20" s="2">
         <v>17</v>
       </c>
-      <c r="BG20" s="4" t="s">
+      <c r="BJ20" s="4" t="s">
         <v>2444</v>
       </c>
     </row>
-    <row r="21" spans="1:59">
+    <row r="21" spans="1:62">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -26837,7 +27044,7 @@
         <v>18</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
@@ -26850,20 +27057,23 @@
       <c r="AS21" s="2">
         <v>18</v>
       </c>
-      <c r="AT21" s="9" t="s">
+      <c r="AT21" s="18" t="s">
         <v>2726</v>
       </c>
       <c r="AU21" s="9"/>
       <c r="AV21" s="9"/>
       <c r="AW21" s="9"/>
-      <c r="AX21" s="8">
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="8">
         <v>18</v>
       </c>
-      <c r="AY21" s="4" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="22" spans="1:59">
+      <c r="BB21" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -26906,7 +27116,7 @@
         <v>19</v>
       </c>
       <c r="AN22" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
@@ -26919,20 +27129,23 @@
       <c r="AS22" s="2">
         <v>19</v>
       </c>
-      <c r="AT22" s="9" t="s">
+      <c r="AT22" s="18" t="s">
         <v>2725</v>
       </c>
       <c r="AU22" s="9"/>
       <c r="AV22" s="9"/>
       <c r="AW22" s="9"/>
-      <c r="AX22" s="8">
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="2">
         <v>19</v>
       </c>
-      <c r="AY22" s="4" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:59">
+      <c r="BB22" s="4" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -26975,7 +27188,7 @@
         <v>20</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
@@ -26988,20 +27201,23 @@
       <c r="AS23" s="2">
         <v>20</v>
       </c>
-      <c r="AT23" s="9" t="s">
+      <c r="AT23" s="18" t="s">
         <v>2724</v>
       </c>
       <c r="AU23" s="9"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
-      <c r="AX23" s="8">
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="8">
         <v>20</v>
       </c>
-      <c r="AY23" s="4" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="24" spans="1:59">
+      <c r="BB23" s="4" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -27044,7 +27260,7 @@
         <v>21</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
@@ -27057,20 +27273,23 @@
       <c r="AS24" s="2">
         <v>21</v>
       </c>
-      <c r="AT24" s="9" t="s">
+      <c r="AT24" s="18" t="s">
         <v>2723</v>
       </c>
       <c r="AU24" s="9"/>
       <c r="AV24" s="9"/>
       <c r="AW24" s="9"/>
-      <c r="AX24" s="8">
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="2">
         <v>21</v>
       </c>
-      <c r="AY24" s="4" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="25" spans="1:59">
+      <c r="BB24" s="4" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -27113,7 +27332,7 @@
         <v>22</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
@@ -27126,20 +27345,23 @@
       <c r="AS25" s="2">
         <v>22</v>
       </c>
-      <c r="AT25" s="9" t="s">
+      <c r="AT25" s="18" t="s">
         <v>2721</v>
       </c>
       <c r="AU25" s="9"/>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9"/>
-      <c r="AX25" s="8">
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="8">
         <v>22</v>
       </c>
-      <c r="AY25" s="4" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="26" spans="1:59">
+      <c r="BB25" s="4" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -27182,7 +27404,7 @@
         <v>23</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
@@ -27195,20 +27417,23 @@
       <c r="AS26" s="2">
         <v>23</v>
       </c>
-      <c r="AT26" s="9" t="s">
+      <c r="AT26" s="18" t="s">
         <v>2719</v>
       </c>
       <c r="AU26" s="9"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
-      <c r="AX26" s="8">
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="2">
         <v>23</v>
       </c>
-      <c r="AY26" s="4" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="27" spans="1:59">
+      <c r="BB26" s="4" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -27251,7 +27476,7 @@
         <v>24</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
@@ -27264,20 +27489,23 @@
       <c r="AS27" s="2">
         <v>24</v>
       </c>
-      <c r="AT27" s="9" t="s">
+      <c r="AT27" s="18" t="s">
         <v>2717</v>
       </c>
       <c r="AU27" s="9"/>
       <c r="AV27" s="9"/>
       <c r="AW27" s="9"/>
-      <c r="AX27" s="8">
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="8">
         <v>24</v>
       </c>
-      <c r="AY27" s="4" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="28" spans="1:59">
+      <c r="BB27" s="4" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -27320,7 +27548,7 @@
         <v>25</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AO28" s="4"/>
       <c r="AP28" s="4"/>
@@ -27333,20 +27561,23 @@
       <c r="AS28" s="2">
         <v>25</v>
       </c>
-      <c r="AT28" s="9" t="s">
+      <c r="AT28" s="18" t="s">
         <v>2716</v>
       </c>
       <c r="AU28" s="9"/>
       <c r="AV28" s="9"/>
       <c r="AW28" s="9"/>
-      <c r="AX28" s="8">
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="9"/>
+      <c r="AZ28" s="9"/>
+      <c r="BA28" s="2">
         <v>25</v>
       </c>
-      <c r="AY28" s="4" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="29" spans="1:59">
+      <c r="BB28" s="4" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -27389,7 +27620,7 @@
         <v>26</v>
       </c>
       <c r="AN29" s="4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
@@ -27402,20 +27633,23 @@
       <c r="AS29" s="2">
         <v>26</v>
       </c>
-      <c r="AT29" s="9" t="s">
+      <c r="AT29" s="18" t="s">
         <v>2715</v>
       </c>
       <c r="AU29" s="9"/>
       <c r="AV29" s="9"/>
       <c r="AW29" s="9"/>
-      <c r="AX29" s="8">
+      <c r="AX29" s="9"/>
+      <c r="AY29" s="9"/>
+      <c r="AZ29" s="9"/>
+      <c r="BA29" s="8">
         <v>26</v>
       </c>
-      <c r="AY29" s="4" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="30" spans="1:59">
+      <c r="BB29" s="4" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -27458,7 +27692,7 @@
         <v>27</v>
       </c>
       <c r="AN30" s="4" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
@@ -27471,20 +27705,23 @@
       <c r="AS30" s="2">
         <v>27</v>
       </c>
-      <c r="AT30" s="9" t="s">
+      <c r="AT30" s="18" t="s">
         <v>2713</v>
       </c>
       <c r="AU30" s="9"/>
       <c r="AV30" s="9"/>
       <c r="AW30" s="9"/>
-      <c r="AX30" s="8">
+      <c r="AX30" s="9"/>
+      <c r="AY30" s="9"/>
+      <c r="AZ30" s="9"/>
+      <c r="BA30" s="2">
         <v>27</v>
       </c>
-      <c r="AY30" s="4" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="31" spans="1:59">
+      <c r="BB30" s="4" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -27527,7 +27764,7 @@
         <v>28</v>
       </c>
       <c r="AN31" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
@@ -27540,20 +27777,23 @@
       <c r="AS31" s="2">
         <v>28</v>
       </c>
-      <c r="AT31" s="9" t="s">
+      <c r="AT31" s="18" t="s">
         <v>2711</v>
       </c>
       <c r="AU31" s="9"/>
       <c r="AV31" s="9"/>
       <c r="AW31" s="9"/>
-      <c r="AX31" s="8">
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="8">
         <v>28</v>
       </c>
-      <c r="AY31" s="4" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="32" spans="1:59">
+      <c r="BB31" s="4" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -27596,7 +27836,7 @@
         <v>29</v>
       </c>
       <c r="AN32" s="4" t="s">
-        <v>1158</v>
+        <v>1179</v>
       </c>
       <c r="AO32" s="4"/>
       <c r="AP32" s="4"/>
@@ -27609,20 +27849,23 @@
       <c r="AS32" s="2">
         <v>29</v>
       </c>
-      <c r="AT32" s="9" t="s">
+      <c r="AT32" s="18" t="s">
         <v>2709</v>
       </c>
       <c r="AU32" s="9"/>
       <c r="AV32" s="9"/>
       <c r="AW32" s="9"/>
-      <c r="AX32" s="8">
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="9"/>
+      <c r="AZ32" s="9"/>
+      <c r="BA32" s="2">
         <v>29</v>
       </c>
-      <c r="AY32" s="4" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="33" spans="1:51">
+      <c r="BB32" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:54">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -27659,7 +27902,7 @@
         <v>30</v>
       </c>
       <c r="AN33" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AO33" s="4"/>
       <c r="AP33" s="4"/>
@@ -27672,20 +27915,23 @@
       <c r="AS33" s="2">
         <v>30</v>
       </c>
-      <c r="AT33" s="9" t="s">
+      <c r="AT33" s="18" t="s">
         <v>2706</v>
       </c>
       <c r="AU33" s="9"/>
       <c r="AV33" s="9"/>
       <c r="AW33" s="9"/>
-      <c r="AX33" s="2">
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="8">
         <v>30</v>
       </c>
-      <c r="AY33" s="4" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="34" spans="1:51">
+      <c r="BB33" s="4" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -27722,7 +27968,7 @@
         <v>31</v>
       </c>
       <c r="AN34" s="4" t="s">
-        <v>1183</v>
+        <v>1158</v>
       </c>
       <c r="AO34" s="4"/>
       <c r="AP34" s="4"/>
@@ -27735,20 +27981,23 @@
       <c r="AS34" s="2">
         <v>31</v>
       </c>
-      <c r="AT34" s="9" t="s">
+      <c r="AT34" s="18" t="s">
         <v>2704</v>
       </c>
       <c r="AU34" s="9"/>
       <c r="AV34" s="9"/>
       <c r="AW34" s="9"/>
-      <c r="AX34" s="2">
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="9"/>
+      <c r="AZ34" s="9"/>
+      <c r="BA34" s="2">
         <v>31</v>
       </c>
-      <c r="AY34" s="4" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="35" spans="1:51">
+      <c r="BB34" s="4" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:54">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -27785,7 +28034,7 @@
         <v>32</v>
       </c>
       <c r="AN35" s="4" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="AO35" s="4"/>
       <c r="AP35" s="4"/>
@@ -27798,20 +28047,23 @@
       <c r="AS35" s="2">
         <v>32</v>
       </c>
-      <c r="AT35" s="9" t="s">
+      <c r="AT35" s="18" t="s">
         <v>2701</v>
       </c>
       <c r="AU35" s="9"/>
       <c r="AV35" s="9"/>
       <c r="AW35" s="9"/>
-      <c r="AX35" s="2">
+      <c r="AX35" s="9"/>
+      <c r="AY35" s="9"/>
+      <c r="AZ35" s="9"/>
+      <c r="BA35" s="8">
         <v>32</v>
       </c>
-      <c r="AY35" s="4" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="36" spans="1:51">
+      <c r="BB35" s="4" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="36" spans="1:54">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -27848,7 +28100,7 @@
         <v>33</v>
       </c>
       <c r="AN36" s="4" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AO36" s="4"/>
       <c r="AP36" s="4"/>
@@ -27861,20 +28113,23 @@
       <c r="AS36" s="2">
         <v>33</v>
       </c>
-      <c r="AT36" s="9" t="s">
+      <c r="AT36" s="18" t="s">
         <v>2698</v>
       </c>
       <c r="AU36" s="9"/>
       <c r="AV36" s="9"/>
       <c r="AW36" s="9"/>
-      <c r="AX36" s="2">
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="9"/>
+      <c r="AZ36" s="9"/>
+      <c r="BA36" s="2">
         <v>33</v>
       </c>
-      <c r="AY36" s="4" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="37" spans="1:51">
+      <c r="BB36" s="4" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54">
       <c r="G37" s="2">
         <v>34</v>
       </c>
@@ -27904,7 +28159,7 @@
         <v>34</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
@@ -27917,20 +28172,23 @@
       <c r="AS37" s="2">
         <v>34</v>
       </c>
-      <c r="AT37" s="9" t="s">
+      <c r="AT37" s="18" t="s">
         <v>2695</v>
       </c>
       <c r="AU37" s="9"/>
       <c r="AV37" s="9"/>
       <c r="AW37" s="9"/>
-      <c r="AX37" s="2">
+      <c r="AX37" s="9"/>
+      <c r="AY37" s="9"/>
+      <c r="AZ37" s="9"/>
+      <c r="BA37" s="8">
         <v>34</v>
       </c>
-      <c r="AY37" s="4" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="38" spans="1:51">
+      <c r="BB37" s="4" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54">
       <c r="G38" s="2">
         <v>35</v>
       </c>
@@ -27960,7 +28218,7 @@
         <v>35</v>
       </c>
       <c r="AN38" s="4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="AO38" s="4"/>
       <c r="AP38" s="4"/>
@@ -27973,20 +28231,23 @@
       <c r="AS38" s="2">
         <v>35</v>
       </c>
-      <c r="AT38" s="9" t="s">
+      <c r="AT38" s="18" t="s">
         <v>2692</v>
       </c>
       <c r="AU38" s="9"/>
       <c r="AV38" s="9"/>
       <c r="AW38" s="9"/>
-      <c r="AX38" s="2">
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="9"/>
+      <c r="BA38" s="2">
         <v>35</v>
       </c>
-      <c r="AY38" s="4" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:51">
+      <c r="BB38" s="4" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="39" spans="1:54">
       <c r="G39" s="2">
         <v>36</v>
       </c>
@@ -28016,7 +28277,7 @@
         <v>36</v>
       </c>
       <c r="AN39" s="4" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AO39" s="4"/>
       <c r="AP39" s="4"/>
@@ -28029,20 +28290,23 @@
       <c r="AS39" s="2">
         <v>36</v>
       </c>
-      <c r="AT39" s="9" t="s">
+      <c r="AT39" s="18" t="s">
         <v>2689</v>
       </c>
       <c r="AU39" s="9"/>
       <c r="AV39" s="9"/>
       <c r="AW39" s="9"/>
-      <c r="AX39" s="2">
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="9"/>
+      <c r="AZ39" s="9"/>
+      <c r="BA39" s="8">
         <v>36</v>
       </c>
-      <c r="AY39" s="4" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="40" spans="1:51">
+      <c r="BB39" s="4" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:54">
       <c r="G40" s="2">
         <v>37</v>
       </c>
@@ -28072,7 +28336,7 @@
         <v>37</v>
       </c>
       <c r="AN40" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="AO40" s="4"/>
       <c r="AP40" s="4"/>
@@ -28085,20 +28349,23 @@
       <c r="AS40" s="2">
         <v>37</v>
       </c>
-      <c r="AT40" s="9" t="s">
+      <c r="AT40" s="18" t="s">
         <v>2687</v>
       </c>
       <c r="AU40" s="9"/>
       <c r="AV40" s="9"/>
       <c r="AW40" s="9"/>
-      <c r="AX40" s="2">
+      <c r="AX40" s="9"/>
+      <c r="AY40" s="9"/>
+      <c r="AZ40" s="9"/>
+      <c r="BA40" s="2">
         <v>37</v>
       </c>
-      <c r="AY40" s="4" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="41" spans="1:51">
+      <c r="BB40" s="4" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54">
       <c r="G41" s="2">
         <v>38</v>
       </c>
@@ -28128,7 +28395,7 @@
         <v>38</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="AO41" s="4"/>
       <c r="AP41" s="4"/>
@@ -28141,20 +28408,23 @@
       <c r="AS41" s="2">
         <v>38</v>
       </c>
-      <c r="AT41" s="9" t="s">
+      <c r="AT41" s="18" t="s">
         <v>2685</v>
       </c>
       <c r="AU41" s="9"/>
       <c r="AV41" s="9"/>
       <c r="AW41" s="9"/>
-      <c r="AX41" s="2">
+      <c r="AX41" s="9"/>
+      <c r="AY41" s="9"/>
+      <c r="AZ41" s="9"/>
+      <c r="BA41" s="8">
         <v>38</v>
       </c>
-      <c r="AY41" s="4" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="42" spans="1:51">
+      <c r="BB41" s="4" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54">
       <c r="G42" s="2">
         <v>39</v>
       </c>
@@ -28184,7 +28454,7 @@
         <v>39</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="AO42" s="4"/>
       <c r="AP42" s="4"/>
@@ -28197,20 +28467,23 @@
       <c r="AS42" s="2">
         <v>39</v>
       </c>
-      <c r="AT42" s="9" t="s">
+      <c r="AT42" s="18" t="s">
         <v>2682</v>
       </c>
       <c r="AU42" s="9"/>
       <c r="AV42" s="9"/>
       <c r="AW42" s="9"/>
-      <c r="AX42" s="2">
+      <c r="AX42" s="9"/>
+      <c r="AY42" s="9"/>
+      <c r="AZ42" s="9"/>
+      <c r="BA42" s="2">
         <v>39</v>
       </c>
-      <c r="AY42" s="4" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="43" spans="1:51">
+      <c r="BB42" s="4" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54">
       <c r="G43" s="2">
         <v>40</v>
       </c>
@@ -28240,7 +28513,7 @@
         <v>40</v>
       </c>
       <c r="AN43" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="AO43" s="4"/>
       <c r="AP43" s="4"/>
@@ -28253,20 +28526,23 @@
       <c r="AS43" s="2">
         <v>40</v>
       </c>
-      <c r="AT43" s="9" t="s">
+      <c r="AT43" s="18" t="s">
         <v>2679</v>
       </c>
       <c r="AU43" s="9"/>
       <c r="AV43" s="9"/>
       <c r="AW43" s="9"/>
-      <c r="AX43" s="2">
+      <c r="AX43" s="9"/>
+      <c r="AY43" s="9"/>
+      <c r="AZ43" s="9"/>
+      <c r="BA43" s="8">
         <v>40</v>
       </c>
-      <c r="AY43" s="4" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="44" spans="1:51">
+      <c r="BB43" s="4" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54">
       <c r="G44" s="2">
         <v>41</v>
       </c>
@@ -28296,7 +28572,7 @@
         <v>41</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="AO44" s="4"/>
       <c r="AP44" s="4"/>
@@ -28309,20 +28585,23 @@
       <c r="AS44" s="2">
         <v>41</v>
       </c>
-      <c r="AT44" s="9" t="s">
+      <c r="AT44" s="18" t="s">
         <v>2676</v>
       </c>
       <c r="AU44" s="9"/>
       <c r="AV44" s="9"/>
       <c r="AW44" s="9"/>
-      <c r="AX44" s="2">
+      <c r="AX44" s="9"/>
+      <c r="AY44" s="9"/>
+      <c r="AZ44" s="9"/>
+      <c r="BA44" s="2">
         <v>41</v>
       </c>
-      <c r="AY44" s="4" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="45" spans="1:51">
+      <c r="BB44" s="4" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54">
       <c r="I45" s="2">
         <v>42</v>
       </c>
@@ -28346,7 +28625,7 @@
         <v>42</v>
       </c>
       <c r="AN45" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AO45" s="4"/>
       <c r="AP45" s="4"/>
@@ -28359,20 +28638,23 @@
       <c r="AS45" s="2">
         <v>42</v>
       </c>
-      <c r="AT45" s="9" t="s">
+      <c r="AT45" s="18" t="s">
         <v>2675</v>
       </c>
       <c r="AU45" s="9"/>
       <c r="AV45" s="9"/>
       <c r="AW45" s="9"/>
-      <c r="AX45" s="2">
+      <c r="AX45" s="9"/>
+      <c r="AY45" s="9"/>
+      <c r="AZ45" s="9"/>
+      <c r="BA45" s="8">
         <v>42</v>
       </c>
-      <c r="AY45" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="46" spans="1:51">
+      <c r="BB45" s="4" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54">
       <c r="I46" s="2">
         <v>43</v>
       </c>
@@ -28396,7 +28678,7 @@
         <v>43</v>
       </c>
       <c r="AN46" s="4" t="s">
-        <v>1157</v>
+        <v>1193</v>
       </c>
       <c r="AO46" s="4"/>
       <c r="AP46" s="4"/>
@@ -28409,20 +28691,23 @@
       <c r="AS46" s="2">
         <v>43</v>
       </c>
-      <c r="AT46" s="9" t="s">
+      <c r="AT46" s="18" t="s">
         <v>2674</v>
       </c>
       <c r="AU46" s="9"/>
       <c r="AV46" s="9"/>
       <c r="AW46" s="9"/>
-      <c r="AX46" s="2">
+      <c r="AX46" s="9"/>
+      <c r="AY46" s="9"/>
+      <c r="AZ46" s="9"/>
+      <c r="BA46" s="2">
         <v>43</v>
       </c>
-      <c r="AY46" s="4" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="47" spans="1:51">
+      <c r="BB46" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54">
       <c r="I47" s="2">
         <v>44</v>
       </c>
@@ -28446,7 +28731,7 @@
         <v>44</v>
       </c>
       <c r="AN47" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AO47" s="4"/>
       <c r="AP47" s="4"/>
@@ -28459,20 +28744,23 @@
       <c r="AS47" s="2">
         <v>44</v>
       </c>
-      <c r="AT47" s="9" t="s">
+      <c r="AT47" s="18" t="s">
         <v>2673</v>
       </c>
       <c r="AU47" s="9"/>
       <c r="AV47" s="9"/>
       <c r="AW47" s="9"/>
-      <c r="AX47" s="2">
+      <c r="AX47" s="9"/>
+      <c r="AY47" s="9"/>
+      <c r="AZ47" s="9"/>
+      <c r="BA47" s="8">
         <v>44</v>
       </c>
-      <c r="AY47" s="4" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="48" spans="1:51">
+      <c r="BB47" s="4" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54">
       <c r="I48" s="2">
         <v>45</v>
       </c>
@@ -28496,7 +28784,7 @@
         <v>45</v>
       </c>
       <c r="AN48" s="4" t="s">
-        <v>1196</v>
+        <v>1157</v>
       </c>
       <c r="AO48" s="4"/>
       <c r="AP48" s="4"/>
@@ -28509,20 +28797,23 @@
       <c r="AS48" s="2">
         <v>45</v>
       </c>
-      <c r="AT48" s="9" t="s">
+      <c r="AT48" s="18" t="s">
         <v>2672</v>
       </c>
       <c r="AU48" s="9"/>
       <c r="AV48" s="9"/>
       <c r="AW48" s="9"/>
-      <c r="AX48" s="2">
+      <c r="AX48" s="9"/>
+      <c r="AY48" s="9"/>
+      <c r="AZ48" s="9"/>
+      <c r="BA48" s="2">
         <v>45</v>
       </c>
-      <c r="AY48" s="4" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="49" spans="9:51">
+      <c r="BB48" s="4" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="49" spans="9:54">
       <c r="I49" s="2">
         <v>46</v>
       </c>
@@ -28546,7 +28837,7 @@
         <v>46</v>
       </c>
       <c r="AN49" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AO49" s="4"/>
       <c r="AP49" s="4"/>
@@ -28559,20 +28850,23 @@
       <c r="AS49" s="2">
         <v>46</v>
       </c>
-      <c r="AT49" s="9" t="s">
+      <c r="AT49" s="18" t="s">
         <v>2671</v>
       </c>
       <c r="AU49" s="9"/>
       <c r="AV49" s="9"/>
       <c r="AW49" s="9"/>
-      <c r="AX49" s="2">
+      <c r="AX49" s="9"/>
+      <c r="AY49" s="9"/>
+      <c r="AZ49" s="9"/>
+      <c r="BA49" s="8">
         <v>46</v>
       </c>
-      <c r="AY49" s="4" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="50" spans="9:51">
+      <c r="BB49" s="4" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="50" spans="9:54">
       <c r="I50" s="2">
         <v>47</v>
       </c>
@@ -28596,7 +28890,7 @@
         <v>47</v>
       </c>
       <c r="AN50" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="AO50" s="4"/>
       <c r="AP50" s="4"/>
@@ -28609,20 +28903,23 @@
       <c r="AS50" s="2">
         <v>47</v>
       </c>
-      <c r="AT50" s="9" t="s">
+      <c r="AT50" s="18" t="s">
         <v>2670</v>
       </c>
       <c r="AU50" s="9"/>
       <c r="AV50" s="9"/>
       <c r="AW50" s="9"/>
-      <c r="AX50" s="2">
+      <c r="AX50" s="9"/>
+      <c r="AY50" s="9"/>
+      <c r="AZ50" s="9"/>
+      <c r="BA50" s="2">
         <v>47</v>
       </c>
-      <c r="AY50" s="4" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="51" spans="9:51">
+      <c r="BB50" s="4" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="51" spans="9:54">
       <c r="I51" s="2">
         <v>48</v>
       </c>
@@ -28646,7 +28943,7 @@
         <v>48</v>
       </c>
       <c r="AN51" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="AO51" s="4"/>
       <c r="AP51" s="4"/>
@@ -28659,20 +28956,23 @@
       <c r="AS51" s="2">
         <v>48</v>
       </c>
-      <c r="AT51" s="9" t="s">
+      <c r="AT51" s="18" t="s">
         <v>2668</v>
       </c>
       <c r="AU51" s="9"/>
       <c r="AV51" s="9"/>
       <c r="AW51" s="9"/>
-      <c r="AX51" s="2">
+      <c r="AX51" s="9"/>
+      <c r="AY51" s="9"/>
+      <c r="AZ51" s="9"/>
+      <c r="BA51" s="8">
         <v>48</v>
       </c>
-      <c r="AY51" s="4" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="52" spans="9:51">
+      <c r="BB51" s="4" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="52" spans="9:54">
       <c r="M52" s="2">
         <v>49</v>
       </c>
@@ -28690,7 +28990,7 @@
         <v>49</v>
       </c>
       <c r="AN52" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="AO52" s="4"/>
       <c r="AP52" s="4"/>
@@ -28703,20 +29003,23 @@
       <c r="AS52" s="2">
         <v>49</v>
       </c>
-      <c r="AT52" s="9" t="s">
+      <c r="AT52" s="18" t="s">
         <v>2667</v>
       </c>
       <c r="AU52" s="9"/>
       <c r="AV52" s="9"/>
       <c r="AW52" s="9"/>
-      <c r="AX52" s="2">
+      <c r="AX52" s="9"/>
+      <c r="AY52" s="9"/>
+      <c r="AZ52" s="9"/>
+      <c r="BA52" s="2">
         <v>49</v>
       </c>
-      <c r="AY52" s="4" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="53" spans="9:51">
+      <c r="BB52" s="4" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="53" spans="9:54">
       <c r="M53" s="2">
         <v>50</v>
       </c>
@@ -28734,7 +29037,7 @@
         <v>50</v>
       </c>
       <c r="AN53" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AO53" s="4"/>
       <c r="AP53" s="4"/>
@@ -28747,20 +29050,23 @@
       <c r="AS53" s="2">
         <v>50</v>
       </c>
-      <c r="AT53" s="9" t="s">
+      <c r="AT53" s="18" t="s">
         <v>2666</v>
       </c>
       <c r="AU53" s="9"/>
       <c r="AV53" s="9"/>
       <c r="AW53" s="9"/>
-      <c r="AX53" s="2">
+      <c r="AX53" s="9"/>
+      <c r="AY53" s="9"/>
+      <c r="AZ53" s="9"/>
+      <c r="BA53" s="8">
         <v>50</v>
       </c>
-      <c r="AY53" s="4" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="54" spans="9:51">
+      <c r="BB53" s="4" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="54" spans="9:54">
       <c r="M54" s="2">
         <v>51</v>
       </c>
@@ -28778,7 +29084,7 @@
         <v>51</v>
       </c>
       <c r="AN54" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AO54" s="4"/>
       <c r="AP54" s="4"/>
@@ -28791,20 +29097,23 @@
       <c r="AS54" s="2">
         <v>51</v>
       </c>
-      <c r="AT54" s="9" t="s">
+      <c r="AT54" s="18" t="s">
         <v>2665</v>
       </c>
       <c r="AU54" s="9"/>
       <c r="AV54" s="9"/>
       <c r="AW54" s="9"/>
-      <c r="AX54" s="2">
+      <c r="AX54" s="9"/>
+      <c r="AY54" s="9"/>
+      <c r="AZ54" s="9"/>
+      <c r="BA54" s="2">
         <v>51</v>
       </c>
-      <c r="AY54" s="4" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="55" spans="9:51">
+      <c r="BB54" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="55" spans="9:54">
       <c r="M55" s="2">
         <v>52</v>
       </c>
@@ -28822,7 +29131,7 @@
         <v>52</v>
       </c>
       <c r="AN55" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AO55" s="4"/>
       <c r="AP55" s="4"/>
@@ -28835,20 +29144,23 @@
       <c r="AS55" s="2">
         <v>52</v>
       </c>
-      <c r="AT55" s="9" t="s">
+      <c r="AT55" s="18" t="s">
         <v>2664</v>
       </c>
       <c r="AU55" s="9"/>
       <c r="AV55" s="9"/>
       <c r="AW55" s="9"/>
-      <c r="AX55" s="2">
+      <c r="AX55" s="9"/>
+      <c r="AY55" s="9"/>
+      <c r="AZ55" s="9"/>
+      <c r="BA55" s="8">
         <v>52</v>
       </c>
-      <c r="AY55" s="4" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="56" spans="9:51">
+      <c r="BB55" s="4" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="56" spans="9:54">
       <c r="AB56" s="8">
         <v>53</v>
       </c>
@@ -28859,7 +29171,7 @@
         <v>53</v>
       </c>
       <c r="AN56" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AO56" s="4"/>
       <c r="AP56" s="4"/>
@@ -28872,20 +29184,23 @@
       <c r="AS56" s="2">
         <v>53</v>
       </c>
-      <c r="AT56" s="9" t="s">
+      <c r="AT56" s="18" t="s">
         <v>2663</v>
       </c>
       <c r="AU56" s="9"/>
       <c r="AV56" s="9"/>
       <c r="AW56" s="9"/>
-      <c r="AX56" s="2">
+      <c r="AX56" s="9"/>
+      <c r="AY56" s="9"/>
+      <c r="AZ56" s="9"/>
+      <c r="BA56" s="2">
         <v>53</v>
       </c>
-      <c r="AY56" s="4" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="57" spans="9:51">
+      <c r="BB56" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="57" spans="9:54">
       <c r="AB57" s="8">
         <v>54</v>
       </c>
@@ -28896,7 +29211,7 @@
         <v>54</v>
       </c>
       <c r="AN57" s="4" t="s">
-        <v>1154</v>
+        <v>1204</v>
       </c>
       <c r="AO57" s="4"/>
       <c r="AP57" s="4"/>
@@ -28909,20 +29224,23 @@
       <c r="AS57" s="2">
         <v>54</v>
       </c>
-      <c r="AT57" s="9" t="s">
+      <c r="AT57" s="18" t="s">
         <v>2662</v>
       </c>
       <c r="AU57" s="9"/>
       <c r="AV57" s="9"/>
       <c r="AW57" s="9"/>
-      <c r="AX57" s="2">
+      <c r="AX57" s="9"/>
+      <c r="AY57" s="9"/>
+      <c r="AZ57" s="9"/>
+      <c r="BA57" s="8">
         <v>54</v>
       </c>
-      <c r="AY57" s="4" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="58" spans="9:51">
+      <c r="BB57" s="4" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="58" spans="9:54">
       <c r="AB58" s="8">
         <v>55</v>
       </c>
@@ -28933,7 +29251,7 @@
         <v>55</v>
       </c>
       <c r="AN58" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AO58" s="4"/>
       <c r="AP58" s="4"/>
@@ -28946,20 +29264,23 @@
       <c r="AS58" s="2">
         <v>55</v>
       </c>
-      <c r="AT58" s="9" t="s">
+      <c r="AT58" s="18" t="s">
         <v>2661</v>
       </c>
       <c r="AU58" s="9"/>
       <c r="AV58" s="9"/>
       <c r="AW58" s="9"/>
-      <c r="AX58" s="2">
+      <c r="AX58" s="9"/>
+      <c r="AY58" s="9"/>
+      <c r="AZ58" s="9"/>
+      <c r="BA58" s="2">
         <v>55</v>
       </c>
-      <c r="AY58" s="4" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="59" spans="9:51">
+      <c r="BB58" s="4" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="59" spans="9:54">
       <c r="AB59" s="8">
         <v>56</v>
       </c>
@@ -28975,20 +29296,23 @@
       <c r="AS59" s="2">
         <v>56</v>
       </c>
-      <c r="AT59" s="9" t="s">
+      <c r="AT59" s="18" t="s">
         <v>2660</v>
       </c>
       <c r="AU59" s="9"/>
       <c r="AV59" s="9"/>
       <c r="AW59" s="9"/>
-      <c r="AX59" s="2">
+      <c r="AX59" s="9"/>
+      <c r="AY59" s="9"/>
+      <c r="AZ59" s="9"/>
+      <c r="BA59" s="8">
         <v>56</v>
       </c>
-      <c r="AY59" s="4" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="60" spans="9:51">
+      <c r="BB59" s="4" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="60" spans="9:54">
       <c r="AB60" s="8">
         <v>57</v>
       </c>
@@ -29004,20 +29328,23 @@
       <c r="AS60" s="2">
         <v>57</v>
       </c>
-      <c r="AT60" s="9" t="s">
+      <c r="AT60" s="18" t="s">
         <v>2659</v>
       </c>
       <c r="AU60" s="9"/>
       <c r="AV60" s="9"/>
       <c r="AW60" s="9"/>
-      <c r="AX60" s="2">
+      <c r="AX60" s="9"/>
+      <c r="AY60" s="9"/>
+      <c r="AZ60" s="9"/>
+      <c r="BA60" s="2">
         <v>57</v>
       </c>
-      <c r="AY60" s="4" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="61" spans="9:51">
+      <c r="BB60" s="4" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="61" spans="9:54">
       <c r="AQ61" s="2">
         <v>58</v>
       </c>
@@ -29027,20 +29354,23 @@
       <c r="AS61" s="2">
         <v>58</v>
       </c>
-      <c r="AT61" s="9" t="s">
+      <c r="AT61" s="18" t="s">
         <v>2658</v>
       </c>
       <c r="AU61" s="9"/>
       <c r="AV61" s="9"/>
       <c r="AW61" s="9"/>
-      <c r="AX61" s="2">
+      <c r="AX61" s="9"/>
+      <c r="AY61" s="9"/>
+      <c r="AZ61" s="9"/>
+      <c r="BA61" s="8">
         <v>58</v>
       </c>
-      <c r="AY61" s="4" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="62" spans="9:51">
+      <c r="BB61" s="4" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="62" spans="9:54">
       <c r="AQ62" s="2">
         <v>59</v>
       </c>
@@ -29050,20 +29380,23 @@
       <c r="AS62" s="2">
         <v>59</v>
       </c>
-      <c r="AT62" s="9" t="s">
+      <c r="AT62" s="18" t="s">
         <v>2657</v>
       </c>
       <c r="AU62" s="9"/>
       <c r="AV62" s="9"/>
       <c r="AW62" s="9"/>
-      <c r="AX62" s="2">
+      <c r="AX62" s="9"/>
+      <c r="AY62" s="9"/>
+      <c r="AZ62" s="9"/>
+      <c r="BA62" s="2">
         <v>59</v>
       </c>
-      <c r="AY62" s="4" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="63" spans="9:51">
+      <c r="BB62" s="4" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="63" spans="9:54">
       <c r="AQ63" s="2">
         <v>60</v>
       </c>
@@ -29073,20 +29406,23 @@
       <c r="AS63" s="2">
         <v>60</v>
       </c>
-      <c r="AT63" s="9" t="s">
+      <c r="AT63" s="18" t="s">
         <v>2656</v>
       </c>
       <c r="AU63" s="9"/>
       <c r="AV63" s="9"/>
       <c r="AW63" s="9"/>
-      <c r="AX63" s="2">
+      <c r="AX63" s="9"/>
+      <c r="AY63" s="9"/>
+      <c r="AZ63" s="9"/>
+      <c r="BA63" s="8">
         <v>60</v>
       </c>
-      <c r="AY63" s="4" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="64" spans="9:51">
+      <c r="BB63" s="4" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="64" spans="9:54">
       <c r="AQ64" s="2">
         <v>61</v>
       </c>
@@ -29096,20 +29432,23 @@
       <c r="AS64" s="2">
         <v>61</v>
       </c>
-      <c r="AT64" s="9" t="s">
+      <c r="AT64" s="18" t="s">
         <v>2655</v>
       </c>
       <c r="AU64" s="9"/>
       <c r="AV64" s="9"/>
       <c r="AW64" s="9"/>
-      <c r="AX64" s="2">
+      <c r="AX64" s="9"/>
+      <c r="AY64" s="9"/>
+      <c r="AZ64" s="9"/>
+      <c r="BA64" s="2">
         <v>61</v>
       </c>
-      <c r="AY64" s="4" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="65" spans="43:51">
+      <c r="BB64" s="4" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="65" spans="43:54">
       <c r="AQ65" s="2">
         <v>62</v>
       </c>
@@ -29119,20 +29458,23 @@
       <c r="AS65" s="2">
         <v>62</v>
       </c>
-      <c r="AT65" s="9" t="s">
+      <c r="AT65" s="18" t="s">
         <v>2654</v>
       </c>
       <c r="AU65" s="9"/>
       <c r="AV65" s="9"/>
       <c r="AW65" s="9"/>
-      <c r="AX65" s="2">
+      <c r="AX65" s="9"/>
+      <c r="AY65" s="9"/>
+      <c r="AZ65" s="9"/>
+      <c r="BA65" s="8">
         <v>62</v>
       </c>
-      <c r="AY65" s="4" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="66" spans="43:51">
+      <c r="BB65" s="4" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="66" spans="43:54">
       <c r="AQ66" s="2">
         <v>63</v>
       </c>
@@ -29142,20 +29484,23 @@
       <c r="AS66" s="2">
         <v>63</v>
       </c>
-      <c r="AT66" s="9" t="s">
+      <c r="AT66" s="18" t="s">
         <v>2653</v>
       </c>
       <c r="AU66" s="9"/>
       <c r="AV66" s="9"/>
       <c r="AW66" s="9"/>
-      <c r="AX66" s="2">
+      <c r="AX66" s="9"/>
+      <c r="AY66" s="9"/>
+      <c r="AZ66" s="9"/>
+      <c r="BA66" s="2">
         <v>63</v>
       </c>
-      <c r="AY66" s="4" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="67" spans="43:51">
+      <c r="BB66" s="4" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="67" spans="43:54">
       <c r="AQ67" s="2">
         <v>64</v>
       </c>
@@ -29165,20 +29510,23 @@
       <c r="AS67" s="2">
         <v>64</v>
       </c>
-      <c r="AT67" s="9" t="s">
+      <c r="AT67" s="18" t="s">
         <v>2652</v>
       </c>
       <c r="AU67" s="9"/>
       <c r="AV67" s="9"/>
       <c r="AW67" s="9"/>
-      <c r="AX67" s="2">
+      <c r="AX67" s="9"/>
+      <c r="AY67" s="9"/>
+      <c r="AZ67" s="9"/>
+      <c r="BA67" s="8">
         <v>64</v>
       </c>
-      <c r="AY67" s="4" t="s">
+      <c r="BB67" s="4" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="68" spans="43:51">
+    <row r="68" spans="43:54">
       <c r="AQ68" s="2">
         <v>65</v>
       </c>
@@ -29188,20 +29536,23 @@
       <c r="AS68" s="2">
         <v>65</v>
       </c>
-      <c r="AT68" s="9" t="s">
+      <c r="AT68" s="18" t="s">
         <v>2651</v>
       </c>
       <c r="AU68" s="9"/>
       <c r="AV68" s="9"/>
       <c r="AW68" s="9"/>
-      <c r="AX68" s="2">
+      <c r="AX68" s="9"/>
+      <c r="AY68" s="9"/>
+      <c r="AZ68" s="9"/>
+      <c r="BA68" s="2">
         <v>65</v>
       </c>
-      <c r="AY68" s="4" t="s">
+      <c r="BB68" s="4" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="69" spans="43:51">
+    <row r="69" spans="43:54">
       <c r="AQ69" s="2">
         <v>66</v>
       </c>
@@ -29211,20 +29562,23 @@
       <c r="AS69" s="2">
         <v>66</v>
       </c>
-      <c r="AT69" s="9" t="s">
+      <c r="AT69" s="18" t="s">
         <v>2650</v>
       </c>
       <c r="AU69" s="9"/>
       <c r="AV69" s="9"/>
       <c r="AW69" s="9"/>
-      <c r="AX69" s="2">
+      <c r="AX69" s="9"/>
+      <c r="AY69" s="9"/>
+      <c r="AZ69" s="9"/>
+      <c r="BA69" s="8">
         <v>66</v>
       </c>
-      <c r="AY69" s="4" t="s">
+      <c r="BB69" s="4" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="70" spans="43:51">
+    <row r="70" spans="43:54">
       <c r="AQ70" s="2">
         <v>67</v>
       </c>
@@ -29234,20 +29588,23 @@
       <c r="AS70" s="2">
         <v>67</v>
       </c>
-      <c r="AT70" s="9" t="s">
+      <c r="AT70" s="18" t="s">
         <v>2649</v>
       </c>
       <c r="AU70" s="9"/>
       <c r="AV70" s="9"/>
       <c r="AW70" s="9"/>
-      <c r="AX70" s="2">
+      <c r="AX70" s="9"/>
+      <c r="AY70" s="9"/>
+      <c r="AZ70" s="9"/>
+      <c r="BA70" s="2">
         <v>67</v>
       </c>
-      <c r="AY70" s="4" t="s">
+      <c r="BB70" s="4" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="71" spans="43:51">
+    <row r="71" spans="43:54">
       <c r="AQ71" s="2">
         <v>68</v>
       </c>
@@ -29257,20 +29614,23 @@
       <c r="AS71" s="2">
         <v>68</v>
       </c>
-      <c r="AT71" s="9" t="s">
+      <c r="AT71" s="18" t="s">
         <v>2648</v>
       </c>
       <c r="AU71" s="9"/>
       <c r="AV71" s="9"/>
       <c r="AW71" s="9"/>
-      <c r="AX71" s="2">
+      <c r="AX71" s="9"/>
+      <c r="AY71" s="9"/>
+      <c r="AZ71" s="9"/>
+      <c r="BA71" s="8">
         <v>68</v>
       </c>
-      <c r="AY71" s="4" t="s">
+      <c r="BB71" s="4" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="72" spans="43:51">
+    <row r="72" spans="43:54">
       <c r="AQ72" s="2">
         <v>69</v>
       </c>
@@ -29280,20 +29640,23 @@
       <c r="AS72" s="2">
         <v>69</v>
       </c>
-      <c r="AT72" s="9" t="s">
+      <c r="AT72" s="18" t="s">
         <v>2647</v>
       </c>
       <c r="AU72" s="9"/>
       <c r="AV72" s="9"/>
       <c r="AW72" s="9"/>
-      <c r="AX72" s="2">
+      <c r="AX72" s="9"/>
+      <c r="AY72" s="9"/>
+      <c r="AZ72" s="9"/>
+      <c r="BA72" s="2">
         <v>69</v>
       </c>
-      <c r="AY72" s="4" t="s">
+      <c r="BB72" s="4" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="73" spans="43:51">
+    <row r="73" spans="43:54">
       <c r="AQ73" s="2">
         <v>70</v>
       </c>
@@ -29303,20 +29666,23 @@
       <c r="AS73" s="2">
         <v>70</v>
       </c>
-      <c r="AT73" s="9" t="s">
+      <c r="AT73" s="18" t="s">
         <v>2646</v>
       </c>
       <c r="AU73" s="9"/>
       <c r="AV73" s="9"/>
       <c r="AW73" s="9"/>
-      <c r="AX73" s="8">
+      <c r="AX73" s="9"/>
+      <c r="AY73" s="9"/>
+      <c r="AZ73" s="9"/>
+      <c r="BA73" s="8">
         <v>70</v>
       </c>
-      <c r="AY73" s="4" t="s">
+      <c r="BB73" s="4" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="74" spans="43:51">
+    <row r="74" spans="43:54">
       <c r="AQ74" s="2">
         <v>71</v>
       </c>
@@ -29326,20 +29692,23 @@
       <c r="AS74" s="2">
         <v>71</v>
       </c>
-      <c r="AT74" s="9" t="s">
+      <c r="AT74" s="18" t="s">
         <v>2645</v>
       </c>
       <c r="AU74" s="9"/>
       <c r="AV74" s="9"/>
       <c r="AW74" s="9"/>
-      <c r="AX74" s="8">
+      <c r="AX74" s="9"/>
+      <c r="AY74" s="9"/>
+      <c r="AZ74" s="9"/>
+      <c r="BA74" s="2">
         <v>71</v>
       </c>
-      <c r="AY74" s="4" t="s">
+      <c r="BB74" s="4" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="75" spans="43:51">
+    <row r="75" spans="43:54">
       <c r="AQ75" s="2">
         <v>72</v>
       </c>
@@ -29349,20 +29718,23 @@
       <c r="AS75" s="2">
         <v>72</v>
       </c>
-      <c r="AT75" s="9" t="s">
+      <c r="AT75" s="18" t="s">
         <v>2644</v>
       </c>
       <c r="AU75" s="9"/>
       <c r="AV75" s="9"/>
       <c r="AW75" s="9"/>
-      <c r="AX75" s="8">
+      <c r="AX75" s="9"/>
+      <c r="AY75" s="9"/>
+      <c r="AZ75" s="9"/>
+      <c r="BA75" s="8">
         <v>72</v>
       </c>
-      <c r="AY75" s="4" t="s">
+      <c r="BB75" s="4" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="76" spans="43:51">
+    <row r="76" spans="43:54">
       <c r="AQ76" s="2">
         <v>73</v>
       </c>
@@ -29372,20 +29744,23 @@
       <c r="AS76" s="2">
         <v>73</v>
       </c>
-      <c r="AT76" s="9" t="s">
+      <c r="AT76" s="18" t="s">
         <v>2643</v>
       </c>
       <c r="AU76" s="9"/>
       <c r="AV76" s="9"/>
       <c r="AW76" s="9"/>
-      <c r="AX76" s="8">
+      <c r="AX76" s="9"/>
+      <c r="AY76" s="9"/>
+      <c r="AZ76" s="9"/>
+      <c r="BA76" s="2">
         <v>73</v>
       </c>
-      <c r="AY76" s="4" t="s">
+      <c r="BB76" s="4" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="77" spans="43:51">
+    <row r="77" spans="43:54">
       <c r="AQ77" s="2">
         <v>74</v>
       </c>
@@ -29395,20 +29770,23 @@
       <c r="AS77" s="2">
         <v>74</v>
       </c>
-      <c r="AT77" s="9" t="s">
+      <c r="AT77" s="18" t="s">
         <v>2642</v>
       </c>
       <c r="AU77" s="9"/>
       <c r="AV77" s="9"/>
       <c r="AW77" s="9"/>
-      <c r="AX77" s="8">
+      <c r="AX77" s="9"/>
+      <c r="AY77" s="9"/>
+      <c r="AZ77" s="9"/>
+      <c r="BA77" s="8">
         <v>74</v>
       </c>
-      <c r="AY77" s="4" t="s">
+      <c r="BB77" s="4" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="78" spans="43:51">
+    <row r="78" spans="43:54">
       <c r="AQ78" s="2">
         <v>75</v>
       </c>
@@ -29418,20 +29796,23 @@
       <c r="AS78" s="2">
         <v>75</v>
       </c>
-      <c r="AT78" s="9" t="s">
+      <c r="AT78" s="18" t="s">
         <v>2641</v>
       </c>
       <c r="AU78" s="9"/>
       <c r="AV78" s="9"/>
       <c r="AW78" s="9"/>
-      <c r="AX78" s="8">
+      <c r="AX78" s="9"/>
+      <c r="AY78" s="9"/>
+      <c r="AZ78" s="9"/>
+      <c r="BA78" s="2">
         <v>75</v>
       </c>
-      <c r="AY78" s="4" t="s">
+      <c r="BB78" s="4" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="79" spans="43:51">
+    <row r="79" spans="43:54">
       <c r="AQ79" s="2">
         <v>76</v>
       </c>
@@ -29441,20 +29822,23 @@
       <c r="AS79" s="2">
         <v>76</v>
       </c>
-      <c r="AT79" s="9" t="s">
+      <c r="AT79" s="18" t="s">
         <v>2640</v>
       </c>
       <c r="AU79" s="9"/>
       <c r="AV79" s="9"/>
       <c r="AW79" s="9"/>
-      <c r="AX79" s="8">
+      <c r="AX79" s="9"/>
+      <c r="AY79" s="9"/>
+      <c r="AZ79" s="9"/>
+      <c r="BA79" s="8">
         <v>76</v>
       </c>
-      <c r="AY79" s="4" t="s">
+      <c r="BB79" s="4" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="80" spans="43:51">
+    <row r="80" spans="43:54">
       <c r="AQ80" s="2">
         <v>77</v>
       </c>
@@ -29464,20 +29848,23 @@
       <c r="AS80" s="2">
         <v>77</v>
       </c>
-      <c r="AT80" s="9" t="s">
+      <c r="AT80" s="18" t="s">
         <v>2639</v>
       </c>
       <c r="AU80" s="9"/>
       <c r="AV80" s="9"/>
       <c r="AW80" s="9"/>
-      <c r="AX80" s="8">
+      <c r="AX80" s="9"/>
+      <c r="AY80" s="9"/>
+      <c r="AZ80" s="9"/>
+      <c r="BA80" s="2">
         <v>77</v>
       </c>
-      <c r="AY80" s="4" t="s">
+      <c r="BB80" s="4" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="81" spans="43:51">
+    <row r="81" spans="43:54">
       <c r="AQ81" s="2">
         <v>78</v>
       </c>
@@ -29487,20 +29874,23 @@
       <c r="AS81" s="2">
         <v>78</v>
       </c>
-      <c r="AT81" s="9" t="s">
+      <c r="AT81" s="18" t="s">
         <v>2638</v>
       </c>
       <c r="AU81" s="9"/>
       <c r="AV81" s="9"/>
       <c r="AW81" s="9"/>
-      <c r="AX81" s="8">
+      <c r="AX81" s="9"/>
+      <c r="AY81" s="9"/>
+      <c r="AZ81" s="9"/>
+      <c r="BA81" s="8">
         <v>78</v>
       </c>
-      <c r="AY81" s="4" t="s">
+      <c r="BB81" s="4" t="s">
         <v>1775</v>
       </c>
     </row>
-    <row r="82" spans="43:51">
+    <row r="82" spans="43:54">
       <c r="AQ82" s="2">
         <v>79</v>
       </c>
@@ -29510,20 +29900,23 @@
       <c r="AS82" s="2">
         <v>79</v>
       </c>
-      <c r="AT82" s="9" t="s">
+      <c r="AT82" s="18" t="s">
         <v>2637</v>
       </c>
       <c r="AU82" s="9"/>
       <c r="AV82" s="9"/>
       <c r="AW82" s="9"/>
-      <c r="AX82" s="8">
+      <c r="AX82" s="9"/>
+      <c r="AY82" s="9"/>
+      <c r="AZ82" s="9"/>
+      <c r="BA82" s="2">
         <v>79</v>
       </c>
-      <c r="AY82" s="4" t="s">
+      <c r="BB82" s="4" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="83" spans="43:51">
+    <row r="83" spans="43:54">
       <c r="AQ83" s="2">
         <v>80</v>
       </c>
@@ -29533,20 +29926,23 @@
       <c r="AS83" s="2">
         <v>80</v>
       </c>
-      <c r="AT83" s="9" t="s">
+      <c r="AT83" s="18" t="s">
         <v>2636</v>
       </c>
       <c r="AU83" s="9"/>
       <c r="AV83" s="9"/>
       <c r="AW83" s="9"/>
-      <c r="AX83" s="8">
+      <c r="AX83" s="9"/>
+      <c r="AY83" s="9"/>
+      <c r="AZ83" s="9"/>
+      <c r="BA83" s="8">
         <v>80</v>
       </c>
-      <c r="AY83" s="4" t="s">
+      <c r="BB83" s="4" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="84" spans="43:51">
+    <row r="84" spans="43:54">
       <c r="AQ84" s="2">
         <v>81</v>
       </c>
@@ -29556,20 +29952,23 @@
       <c r="AS84" s="2">
         <v>81</v>
       </c>
-      <c r="AT84" s="9" t="s">
+      <c r="AT84" s="18" t="s">
         <v>2635</v>
       </c>
       <c r="AU84" s="9"/>
       <c r="AV84" s="9"/>
       <c r="AW84" s="9"/>
-      <c r="AX84" s="8">
+      <c r="AX84" s="9"/>
+      <c r="AY84" s="9"/>
+      <c r="AZ84" s="9"/>
+      <c r="BA84" s="2">
         <v>81</v>
       </c>
-      <c r="AY84" s="4" t="s">
+      <c r="BB84" s="4" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="85" spans="43:51">
+    <row r="85" spans="43:54">
       <c r="AQ85" s="2">
         <v>82</v>
       </c>
@@ -29579,20 +29978,23 @@
       <c r="AS85" s="2">
         <v>82</v>
       </c>
-      <c r="AT85" s="9" t="s">
+      <c r="AT85" s="18" t="s">
         <v>2634</v>
       </c>
       <c r="AU85" s="9"/>
       <c r="AV85" s="9"/>
       <c r="AW85" s="9"/>
-      <c r="AX85" s="8">
+      <c r="AX85" s="9"/>
+      <c r="AY85" s="9"/>
+      <c r="AZ85" s="9"/>
+      <c r="BA85" s="8">
         <v>82</v>
       </c>
-      <c r="AY85" s="4" t="s">
+      <c r="BB85" s="4" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="86" spans="43:51">
+    <row r="86" spans="43:54">
       <c r="AQ86" s="2">
         <v>83</v>
       </c>
@@ -29602,20 +30004,23 @@
       <c r="AS86" s="2">
         <v>83</v>
       </c>
-      <c r="AT86" s="9" t="s">
+      <c r="AT86" s="18" t="s">
         <v>2633</v>
       </c>
       <c r="AU86" s="9"/>
       <c r="AV86" s="9"/>
       <c r="AW86" s="9"/>
-      <c r="AX86" s="8">
+      <c r="AX86" s="9"/>
+      <c r="AY86" s="9"/>
+      <c r="AZ86" s="9"/>
+      <c r="BA86" s="2">
         <v>83</v>
       </c>
-      <c r="AY86" s="4" t="s">
+      <c r="BB86" s="4" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="87" spans="43:51">
+    <row r="87" spans="43:54">
       <c r="AQ87" s="2">
         <v>84</v>
       </c>
@@ -29625,20 +30030,23 @@
       <c r="AS87" s="2">
         <v>84</v>
       </c>
-      <c r="AT87" s="9" t="s">
+      <c r="AT87" s="18" t="s">
         <v>2632</v>
       </c>
       <c r="AU87" s="9"/>
       <c r="AV87" s="9"/>
       <c r="AW87" s="9"/>
-      <c r="AX87" s="8">
+      <c r="AX87" s="9"/>
+      <c r="AY87" s="9"/>
+      <c r="AZ87" s="9"/>
+      <c r="BA87" s="8">
         <v>84</v>
       </c>
-      <c r="AY87" s="4" t="s">
+      <c r="BB87" s="4" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="88" spans="43:51">
+    <row r="88" spans="43:54">
       <c r="AQ88" s="2">
         <v>85</v>
       </c>
@@ -29648,20 +30056,23 @@
       <c r="AS88" s="2">
         <v>85</v>
       </c>
-      <c r="AT88" s="9" t="s">
+      <c r="AT88" s="18" t="s">
         <v>2631</v>
       </c>
       <c r="AU88" s="9"/>
       <c r="AV88" s="9"/>
       <c r="AW88" s="9"/>
-      <c r="AX88" s="8">
+      <c r="AX88" s="9"/>
+      <c r="AY88" s="9"/>
+      <c r="AZ88" s="9"/>
+      <c r="BA88" s="2">
         <v>85</v>
       </c>
-      <c r="AY88" s="4" t="s">
+      <c r="BB88" s="4" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="89" spans="43:51">
+    <row r="89" spans="43:54">
       <c r="AQ89" s="2">
         <v>86</v>
       </c>
@@ -29671,20 +30082,23 @@
       <c r="AS89" s="2">
         <v>86</v>
       </c>
-      <c r="AT89" s="9" t="s">
+      <c r="AT89" s="18" t="s">
         <v>2630</v>
       </c>
       <c r="AU89" s="9"/>
       <c r="AV89" s="9"/>
       <c r="AW89" s="9"/>
-      <c r="AX89" s="8">
+      <c r="AX89" s="9"/>
+      <c r="AY89" s="9"/>
+      <c r="AZ89" s="9"/>
+      <c r="BA89" s="8">
         <v>86</v>
       </c>
-      <c r="AY89" s="4" t="s">
+      <c r="BB89" s="4" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="90" spans="43:51">
+    <row r="90" spans="43:54">
       <c r="AQ90" s="2">
         <v>87</v>
       </c>
@@ -29694,20 +30108,23 @@
       <c r="AS90" s="2">
         <v>87</v>
       </c>
-      <c r="AT90" s="9" t="s">
+      <c r="AT90" s="18" t="s">
         <v>2629</v>
       </c>
       <c r="AU90" s="9"/>
       <c r="AV90" s="9"/>
       <c r="AW90" s="9"/>
-      <c r="AX90" s="8">
+      <c r="AX90" s="9"/>
+      <c r="AY90" s="9"/>
+      <c r="AZ90" s="9"/>
+      <c r="BA90" s="2">
         <v>87</v>
       </c>
-      <c r="AY90" s="4" t="s">
+      <c r="BB90" s="4" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="91" spans="43:51">
+    <row r="91" spans="43:54">
       <c r="AQ91" s="2">
         <v>88</v>
       </c>
@@ -29717,20 +30134,23 @@
       <c r="AS91" s="2">
         <v>88</v>
       </c>
-      <c r="AT91" s="9" t="s">
+      <c r="AT91" s="18" t="s">
         <v>2628</v>
       </c>
       <c r="AU91" s="9"/>
       <c r="AV91" s="9"/>
       <c r="AW91" s="9"/>
-      <c r="AX91" s="8">
+      <c r="AX91" s="9"/>
+      <c r="AY91" s="9"/>
+      <c r="AZ91" s="9"/>
+      <c r="BA91" s="8">
         <v>88</v>
       </c>
-      <c r="AY91" s="4" t="s">
+      <c r="BB91" s="4" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="92" spans="43:51">
+    <row r="92" spans="43:54">
       <c r="AQ92" s="2">
         <v>89</v>
       </c>
@@ -29740,1256 +30160,1512 @@
       <c r="AS92" s="2">
         <v>89</v>
       </c>
-      <c r="AT92" s="9" t="s">
+      <c r="AT92" s="18" t="s">
         <v>2627</v>
       </c>
       <c r="AU92" s="9"/>
       <c r="AV92" s="9"/>
       <c r="AW92" s="9"/>
-      <c r="AX92" s="8">
+      <c r="AX92" s="9"/>
+      <c r="AY92" s="9"/>
+      <c r="AZ92" s="9"/>
+      <c r="BA92" s="2">
         <v>89</v>
       </c>
-      <c r="AY92" s="4" t="s">
+      <c r="BB92" s="4" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="93" spans="43:51">
+    <row r="93" spans="43:54">
       <c r="AS93" s="2">
         <v>90</v>
       </c>
-      <c r="AT93" s="9" t="s">
+      <c r="AT93" s="18" t="s">
         <v>2626</v>
       </c>
       <c r="AU93" s="9"/>
       <c r="AV93" s="9"/>
       <c r="AW93" s="9"/>
-      <c r="AX93" s="8">
+      <c r="AX93" s="9"/>
+      <c r="AY93" s="9"/>
+      <c r="AZ93" s="9"/>
+      <c r="BA93" s="8">
         <v>90</v>
       </c>
-      <c r="AY93" s="4" t="s">
+      <c r="BB93" s="4" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="94" spans="43:51">
+    <row r="94" spans="43:54">
       <c r="AS94" s="2">
         <v>91</v>
       </c>
-      <c r="AT94" s="9" t="s">
+      <c r="AT94" s="18" t="s">
         <v>2625</v>
       </c>
       <c r="AU94" s="9"/>
       <c r="AV94" s="9"/>
       <c r="AW94" s="9"/>
-      <c r="AX94" s="8">
+      <c r="AX94" s="9"/>
+      <c r="AY94" s="9"/>
+      <c r="AZ94" s="9"/>
+      <c r="BA94" s="2">
         <v>91</v>
       </c>
-      <c r="AY94" s="4" t="s">
+      <c r="BB94" s="4" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="95" spans="43:51">
+    <row r="95" spans="43:54">
       <c r="AS95" s="2">
         <v>92</v>
       </c>
-      <c r="AT95" s="9" t="s">
+      <c r="AT95" s="18" t="s">
         <v>2624</v>
       </c>
       <c r="AU95" s="9"/>
       <c r="AV95" s="9"/>
       <c r="AW95" s="9"/>
-      <c r="AX95" s="2">
+      <c r="AX95" s="9"/>
+      <c r="AY95" s="9"/>
+      <c r="AZ95" s="9"/>
+      <c r="BA95" s="8">
         <v>92</v>
       </c>
-      <c r="AY95" s="4" t="s">
+      <c r="BB95" s="4" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="96" spans="43:51">
+    <row r="96" spans="43:54">
       <c r="AS96" s="2">
         <v>93</v>
       </c>
-      <c r="AT96" s="9" t="s">
+      <c r="AT96" s="18" t="s">
         <v>2623</v>
       </c>
       <c r="AU96" s="9"/>
       <c r="AV96" s="9"/>
       <c r="AW96" s="9"/>
-      <c r="AX96" s="2">
+      <c r="AX96" s="9"/>
+      <c r="AY96" s="9"/>
+      <c r="AZ96" s="9"/>
+      <c r="BA96" s="2">
         <v>93</v>
       </c>
-      <c r="AY96" s="4" t="s">
+      <c r="BB96" s="4" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="97" spans="45:51">
+    <row r="97" spans="45:54">
       <c r="AS97" s="2">
         <v>94</v>
       </c>
-      <c r="AT97" s="9" t="s">
+      <c r="AT97" s="18" t="s">
         <v>2622</v>
       </c>
       <c r="AU97" s="9"/>
       <c r="AV97" s="9"/>
       <c r="AW97" s="9"/>
-      <c r="AX97" s="2">
+      <c r="AX97" s="9"/>
+      <c r="AY97" s="9"/>
+      <c r="AZ97" s="9"/>
+      <c r="BA97" s="8">
         <v>94</v>
       </c>
-      <c r="AY97" s="4" t="s">
+      <c r="BB97" s="4" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="98" spans="45:51">
+    <row r="98" spans="45:54">
       <c r="AS98" s="2">
         <v>95</v>
       </c>
-      <c r="AT98" s="9" t="s">
+      <c r="AT98" s="18" t="s">
         <v>2621</v>
       </c>
       <c r="AU98" s="9"/>
       <c r="AV98" s="9"/>
       <c r="AW98" s="9"/>
-      <c r="AX98" s="2">
+      <c r="AX98" s="9"/>
+      <c r="AY98" s="9"/>
+      <c r="AZ98" s="9"/>
+      <c r="BA98" s="2">
         <v>95</v>
       </c>
-      <c r="AY98" s="4" t="s">
+      <c r="BB98" s="4" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="99" spans="45:51">
+    <row r="99" spans="45:54">
       <c r="AS99" s="2">
         <v>96</v>
       </c>
-      <c r="AT99" s="9" t="s">
+      <c r="AT99" s="18" t="s">
         <v>1129</v>
       </c>
       <c r="AU99" s="9"/>
       <c r="AV99" s="9"/>
       <c r="AW99" s="9"/>
-      <c r="AX99" s="2">
+      <c r="AX99" s="9"/>
+      <c r="AY99" s="9"/>
+      <c r="AZ99" s="9"/>
+      <c r="BA99" s="8">
         <v>96</v>
       </c>
-      <c r="AY99" s="4" t="s">
+      <c r="BB99" s="4" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="100" spans="45:51">
+    <row r="100" spans="45:54">
       <c r="AS100" s="2">
         <v>97</v>
       </c>
-      <c r="AT100" s="9" t="s">
+      <c r="AT100" s="18" t="s">
         <v>2620</v>
       </c>
       <c r="AU100" s="9"/>
       <c r="AV100" s="9"/>
       <c r="AW100" s="9"/>
-      <c r="AX100" s="2">
+      <c r="AX100" s="9"/>
+      <c r="AY100" s="9"/>
+      <c r="AZ100" s="9"/>
+      <c r="BA100" s="2">
         <v>97</v>
       </c>
-      <c r="AY100" s="4" t="s">
+      <c r="BB100" s="4" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="101" spans="45:51">
+    <row r="101" spans="45:54">
       <c r="AS101" s="2">
         <v>98</v>
       </c>
-      <c r="AT101" s="9" t="s">
+      <c r="AT101" s="18" t="s">
         <v>2619</v>
       </c>
       <c r="AU101" s="9"/>
       <c r="AV101" s="9"/>
       <c r="AW101" s="9"/>
-      <c r="AX101" s="2">
+      <c r="AX101" s="9"/>
+      <c r="AY101" s="9"/>
+      <c r="AZ101" s="9"/>
+      <c r="BA101" s="8">
         <v>98</v>
       </c>
-      <c r="AY101" s="4" t="s">
+      <c r="BB101" s="4" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="102" spans="45:51">
+    <row r="102" spans="45:54">
       <c r="AS102" s="2">
         <v>99</v>
       </c>
-      <c r="AT102" s="9" t="s">
+      <c r="AT102" s="18" t="s">
         <v>2618</v>
       </c>
       <c r="AU102" s="9"/>
       <c r="AV102" s="9"/>
       <c r="AW102" s="9"/>
-      <c r="AX102" s="2">
+      <c r="AX102" s="9"/>
+      <c r="AY102" s="9"/>
+      <c r="AZ102" s="9"/>
+      <c r="BA102" s="2">
         <v>99</v>
       </c>
-      <c r="AY102" s="4" t="s">
+      <c r="BB102" s="4" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="103" spans="45:51">
+    <row r="103" spans="45:54">
       <c r="AS103" s="2">
         <v>100</v>
       </c>
-      <c r="AT103" s="9" t="s">
+      <c r="AT103" s="18" t="s">
         <v>2617</v>
       </c>
       <c r="AU103" s="9"/>
       <c r="AV103" s="9"/>
       <c r="AW103" s="9"/>
-      <c r="AX103" s="2">
+      <c r="AX103" s="9"/>
+      <c r="AY103" s="9"/>
+      <c r="AZ103" s="9"/>
+      <c r="BA103" s="8">
         <v>100</v>
       </c>
-      <c r="AY103" s="4" t="s">
+      <c r="BB103" s="4" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="104" spans="45:51">
+    <row r="104" spans="45:54">
       <c r="AS104" s="2">
         <v>101</v>
       </c>
-      <c r="AT104" s="9" t="s">
+      <c r="AT104" s="18" t="s">
         <v>2616</v>
       </c>
       <c r="AU104" s="9"/>
       <c r="AV104" s="9"/>
       <c r="AW104" s="9"/>
-      <c r="AX104" s="2">
+      <c r="AX104" s="9"/>
+      <c r="AY104" s="9"/>
+      <c r="AZ104" s="9"/>
+      <c r="BA104" s="2">
         <v>101</v>
       </c>
-      <c r="AY104" s="4" t="s">
+      <c r="BB104" s="4" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="105" spans="45:51">
+    <row r="105" spans="45:54">
       <c r="AS105" s="2">
         <v>102</v>
       </c>
-      <c r="AT105" s="9" t="s">
+      <c r="AT105" s="18" t="s">
         <v>2615</v>
       </c>
       <c r="AU105" s="9"/>
       <c r="AV105" s="9"/>
       <c r="AW105" s="9"/>
-      <c r="AX105" s="2">
+      <c r="AX105" s="9"/>
+      <c r="AY105" s="9"/>
+      <c r="AZ105" s="9"/>
+      <c r="BA105" s="8">
         <v>102</v>
       </c>
-      <c r="AY105" s="4" t="s">
+      <c r="BB105" s="4" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="106" spans="45:51">
+    <row r="106" spans="45:54">
       <c r="AS106" s="2">
         <v>103</v>
       </c>
-      <c r="AT106" s="9" t="s">
+      <c r="AT106" s="18" t="s">
         <v>2614</v>
       </c>
       <c r="AU106" s="9"/>
       <c r="AV106" s="9"/>
       <c r="AW106" s="9"/>
-      <c r="AX106" s="2">
+      <c r="AX106" s="9"/>
+      <c r="AY106" s="9"/>
+      <c r="AZ106" s="9"/>
+      <c r="BA106" s="2">
         <v>103</v>
       </c>
-      <c r="AY106" s="4" t="s">
+      <c r="BB106" s="4" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="107" spans="45:51">
+    <row r="107" spans="45:54">
       <c r="AS107" s="2">
         <v>104</v>
       </c>
-      <c r="AT107" s="9" t="s">
+      <c r="AT107" s="18" t="s">
         <v>2613</v>
       </c>
       <c r="AU107" s="9"/>
       <c r="AV107" s="9"/>
       <c r="AW107" s="9"/>
-      <c r="AX107" s="2">
+      <c r="AX107" s="9"/>
+      <c r="AY107" s="9"/>
+      <c r="AZ107" s="9"/>
+      <c r="BA107" s="8">
         <v>104</v>
       </c>
-      <c r="AY107" s="4" t="s">
+      <c r="BB107" s="4" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="108" spans="45:51">
+    <row r="108" spans="45:54">
       <c r="AS108" s="2">
         <v>105</v>
       </c>
-      <c r="AT108" s="9" t="s">
+      <c r="AT108" s="18" t="s">
         <v>2612</v>
       </c>
       <c r="AU108" s="9"/>
       <c r="AV108" s="9"/>
       <c r="AW108" s="9"/>
-      <c r="AX108" s="2">
+      <c r="AX108" s="9"/>
+      <c r="AY108" s="9"/>
+      <c r="AZ108" s="9"/>
+      <c r="BA108" s="2">
         <v>105</v>
       </c>
-      <c r="AY108" s="4" t="s">
+      <c r="BB108" s="4" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="109" spans="45:51">
+    <row r="109" spans="45:54">
       <c r="AS109" s="2">
         <v>106</v>
       </c>
-      <c r="AT109" s="9" t="s">
+      <c r="AT109" s="18" t="s">
         <v>2611</v>
       </c>
       <c r="AU109" s="9"/>
       <c r="AV109" s="9"/>
       <c r="AW109" s="9"/>
-      <c r="AX109" s="2">
+      <c r="AX109" s="9"/>
+      <c r="AY109" s="9"/>
+      <c r="AZ109" s="9"/>
+      <c r="BA109" s="8">
         <v>106</v>
       </c>
-      <c r="AY109" s="4" t="s">
+      <c r="BB109" s="4" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="110" spans="45:51">
+    <row r="110" spans="45:54">
       <c r="AS110" s="2">
         <v>107</v>
       </c>
-      <c r="AT110" s="9" t="s">
+      <c r="AT110" s="18" t="s">
         <v>2610</v>
       </c>
       <c r="AU110" s="9"/>
       <c r="AV110" s="9"/>
       <c r="AW110" s="9"/>
-      <c r="AX110" s="2">
+      <c r="AX110" s="9"/>
+      <c r="AY110" s="9"/>
+      <c r="AZ110" s="9"/>
+      <c r="BA110" s="2">
         <v>107</v>
       </c>
-      <c r="AY110" s="4" t="s">
+      <c r="BB110" s="4" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="111" spans="45:51">
+    <row r="111" spans="45:54">
       <c r="AS111" s="2">
         <v>108</v>
       </c>
-      <c r="AT111" s="9" t="s">
+      <c r="AT111" s="18" t="s">
         <v>2609</v>
       </c>
       <c r="AU111" s="9"/>
       <c r="AV111" s="9"/>
       <c r="AW111" s="9"/>
-      <c r="AX111" s="2">
+      <c r="AX111" s="9"/>
+      <c r="AY111" s="9"/>
+      <c r="AZ111" s="9"/>
+      <c r="BA111" s="8">
         <v>108</v>
       </c>
-      <c r="AY111" s="4" t="s">
+      <c r="BB111" s="4" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="112" spans="45:51">
+    <row r="112" spans="45:54">
       <c r="AS112" s="2">
         <v>109</v>
       </c>
-      <c r="AT112" s="9" t="s">
+      <c r="AT112" s="18" t="s">
         <v>2608</v>
       </c>
       <c r="AU112" s="9"/>
       <c r="AV112" s="9"/>
       <c r="AW112" s="9"/>
-      <c r="AX112" s="2">
+      <c r="AX112" s="9"/>
+      <c r="AY112" s="9"/>
+      <c r="AZ112" s="9"/>
+      <c r="BA112" s="2">
         <v>109</v>
       </c>
-      <c r="AY112" s="4" t="s">
+      <c r="BB112" s="4" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="113" spans="45:51">
+    <row r="113" spans="45:54">
       <c r="AS113" s="2">
         <v>110</v>
       </c>
-      <c r="AT113" s="9" t="s">
+      <c r="AT113" s="18" t="s">
         <v>2607</v>
       </c>
       <c r="AU113" s="9"/>
       <c r="AV113" s="9"/>
       <c r="AW113" s="9"/>
-      <c r="AX113" s="2">
+      <c r="AX113" s="9"/>
+      <c r="AY113" s="9"/>
+      <c r="AZ113" s="9"/>
+      <c r="BA113" s="8">
         <v>110</v>
       </c>
-      <c r="AY113" s="4" t="s">
+      <c r="BB113" s="4" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="114" spans="45:51">
+    <row r="114" spans="45:54">
       <c r="AS114" s="2">
         <v>111</v>
       </c>
-      <c r="AT114" s="9" t="s">
+      <c r="AT114" s="18" t="s">
         <v>2606</v>
       </c>
       <c r="AU114" s="9"/>
       <c r="AV114" s="9"/>
       <c r="AW114" s="9"/>
-      <c r="AX114" s="2">
+      <c r="AX114" s="9"/>
+      <c r="AY114" s="9"/>
+      <c r="AZ114" s="9"/>
+      <c r="BA114" s="2">
         <v>111</v>
       </c>
-      <c r="AY114" s="4" t="s">
+      <c r="BB114" s="4" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="115" spans="45:51">
+    <row r="115" spans="45:54">
       <c r="AS115" s="2">
         <v>112</v>
       </c>
-      <c r="AT115" s="9" t="s">
+      <c r="AT115" s="18" t="s">
         <v>2605</v>
       </c>
       <c r="AU115" s="9"/>
       <c r="AV115" s="9"/>
       <c r="AW115" s="9"/>
-      <c r="AX115" s="2">
+      <c r="AX115" s="9"/>
+      <c r="AY115" s="9"/>
+      <c r="AZ115" s="9"/>
+      <c r="BA115" s="8">
         <v>112</v>
       </c>
-      <c r="AY115" s="4" t="s">
+      <c r="BB115" s="4" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="116" spans="45:51">
+    <row r="116" spans="45:54">
       <c r="AS116" s="2">
         <v>113</v>
       </c>
-      <c r="AT116" s="9" t="s">
+      <c r="AT116" s="18" t="s">
         <v>2604</v>
       </c>
       <c r="AU116" s="9"/>
       <c r="AV116" s="9"/>
       <c r="AW116" s="9"/>
-      <c r="AX116" s="2">
+      <c r="AX116" s="9"/>
+      <c r="AY116" s="9"/>
+      <c r="AZ116" s="9"/>
+      <c r="BA116" s="2">
         <v>113</v>
       </c>
-      <c r="AY116" s="4" t="s">
+      <c r="BB116" s="4" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="117" spans="45:51">
+    <row r="117" spans="45:54">
       <c r="AS117" s="2">
         <v>114</v>
       </c>
-      <c r="AT117" s="9" t="s">
+      <c r="AT117" s="18" t="s">
         <v>2603</v>
       </c>
       <c r="AU117" s="9"/>
       <c r="AV117" s="9"/>
       <c r="AW117" s="9"/>
-      <c r="AX117" s="2">
+      <c r="AX117" s="9"/>
+      <c r="AY117" s="9"/>
+      <c r="AZ117" s="9"/>
+      <c r="BA117" s="8">
         <v>114</v>
       </c>
-      <c r="AY117" s="4" t="s">
+      <c r="BB117" s="4" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="118" spans="45:51">
+    <row r="118" spans="45:54">
       <c r="AS118" s="2">
         <v>115</v>
       </c>
-      <c r="AT118" s="9" t="s">
+      <c r="AT118" s="18" t="s">
         <v>2602</v>
       </c>
       <c r="AU118" s="9"/>
       <c r="AV118" s="9"/>
       <c r="AW118" s="9"/>
-      <c r="AX118" s="2">
+      <c r="AX118" s="9"/>
+      <c r="AY118" s="9"/>
+      <c r="AZ118" s="9"/>
+      <c r="BA118" s="2">
         <v>115</v>
       </c>
-      <c r="AY118" s="4" t="s">
+      <c r="BB118" s="4" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="119" spans="45:51">
+    <row r="119" spans="45:54">
       <c r="AS119" s="2">
         <v>116</v>
       </c>
-      <c r="AT119" s="9" t="s">
+      <c r="AT119" s="18" t="s">
         <v>2601</v>
       </c>
       <c r="AU119" s="9"/>
       <c r="AV119" s="9"/>
       <c r="AW119" s="9"/>
-      <c r="AX119" s="2">
+      <c r="AX119" s="9"/>
+      <c r="AY119" s="9"/>
+      <c r="AZ119" s="9"/>
+      <c r="BA119" s="8">
         <v>116</v>
       </c>
-      <c r="AY119" s="4" t="s">
+      <c r="BB119" s="4" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="120" spans="45:51">
+    <row r="120" spans="45:54">
       <c r="AS120" s="2">
         <v>117</v>
       </c>
-      <c r="AT120" s="9" t="s">
+      <c r="AT120" s="18" t="s">
         <v>2600</v>
       </c>
       <c r="AU120" s="9"/>
       <c r="AV120" s="9"/>
       <c r="AW120" s="9"/>
-      <c r="AX120" s="8">
+      <c r="AX120" s="9"/>
+      <c r="AY120" s="9"/>
+      <c r="AZ120" s="9"/>
+      <c r="BA120" s="2">
         <v>117</v>
       </c>
-      <c r="AY120" s="4" t="s">
+      <c r="BB120" s="4" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="121" spans="45:51">
+    <row r="121" spans="45:54">
       <c r="AS121" s="2">
         <v>118</v>
       </c>
-      <c r="AT121" s="9" t="s">
+      <c r="AT121" s="18" t="s">
         <v>2599</v>
       </c>
       <c r="AU121" s="9"/>
       <c r="AV121" s="9"/>
       <c r="AW121" s="9"/>
-      <c r="AX121" s="8">
+      <c r="AX121" s="9"/>
+      <c r="AY121" s="9"/>
+      <c r="AZ121" s="9"/>
+      <c r="BA121" s="8">
         <v>118</v>
       </c>
-      <c r="AY121" s="4" t="s">
+      <c r="BB121" s="4" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="122" spans="45:51">
+    <row r="122" spans="45:54">
       <c r="AS122" s="2">
         <v>119</v>
       </c>
-      <c r="AT122" s="9" t="s">
+      <c r="AT122" s="18" t="s">
         <v>2598</v>
       </c>
       <c r="AU122" s="9"/>
       <c r="AV122" s="9"/>
       <c r="AW122" s="9"/>
-      <c r="AX122" s="8">
+      <c r="AX122" s="9"/>
+      <c r="AY122" s="9"/>
+      <c r="AZ122" s="9"/>
+      <c r="BA122" s="2">
         <v>119</v>
       </c>
-      <c r="AY122" s="4" t="s">
+      <c r="BB122" s="4" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="123" spans="45:51">
+    <row r="123" spans="45:54">
       <c r="AS123" s="2">
         <v>120</v>
       </c>
-      <c r="AT123" s="9" t="s">
+      <c r="AT123" s="18" t="s">
         <v>2597</v>
       </c>
       <c r="AU123" s="9"/>
       <c r="AV123" s="9"/>
       <c r="AW123" s="9"/>
-      <c r="AX123" s="8">
+      <c r="AX123" s="9"/>
+      <c r="AY123" s="9"/>
+      <c r="AZ123" s="9"/>
+      <c r="BA123" s="8">
         <v>120</v>
       </c>
-      <c r="AY123" s="4" t="s">
+      <c r="BB123" s="4" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="124" spans="45:51">
+    <row r="124" spans="45:54">
       <c r="AS124" s="2">
         <v>121</v>
       </c>
-      <c r="AT124" s="9" t="s">
+      <c r="AT124" s="18" t="s">
         <v>2596</v>
       </c>
       <c r="AU124" s="9"/>
       <c r="AV124" s="9"/>
       <c r="AW124" s="9"/>
-      <c r="AX124" s="8">
+      <c r="AX124" s="9"/>
+      <c r="AY124" s="9"/>
+      <c r="AZ124" s="9"/>
+      <c r="BA124" s="2">
         <v>121</v>
       </c>
-      <c r="AY124" s="4" t="s">
+      <c r="BB124" s="4" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="125" spans="45:51">
+    <row r="125" spans="45:54">
       <c r="AS125" s="2">
         <v>122</v>
       </c>
-      <c r="AT125" s="9" t="s">
+      <c r="AT125" s="18" t="s">
         <v>2595</v>
       </c>
       <c r="AU125" s="9"/>
       <c r="AV125" s="9"/>
       <c r="AW125" s="9"/>
-      <c r="AX125" s="8">
+      <c r="AX125" s="9"/>
+      <c r="AY125" s="9"/>
+      <c r="AZ125" s="9"/>
+      <c r="BA125" s="8">
         <v>122</v>
       </c>
-      <c r="AY125" s="4" t="s">
+      <c r="BB125" s="4" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="126" spans="45:51">
+    <row r="126" spans="45:54">
       <c r="AS126" s="2">
         <v>123</v>
       </c>
-      <c r="AT126" s="9" t="s">
+      <c r="AT126" s="18" t="s">
         <v>2594</v>
       </c>
       <c r="AU126" s="9"/>
       <c r="AV126" s="9"/>
       <c r="AW126" s="9"/>
-      <c r="AX126" s="8">
+      <c r="AX126" s="9"/>
+      <c r="AY126" s="9"/>
+      <c r="AZ126" s="9"/>
+      <c r="BA126" s="2">
         <v>123</v>
       </c>
-      <c r="AY126" s="4" t="s">
+      <c r="BB126" s="4" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="127" spans="45:51">
+    <row r="127" spans="45:54">
       <c r="AS127" s="2">
         <v>124</v>
       </c>
-      <c r="AT127" s="9" t="s">
+      <c r="AT127" s="18" t="s">
         <v>2593</v>
       </c>
       <c r="AU127" s="9"/>
       <c r="AV127" s="9"/>
       <c r="AW127" s="9"/>
-      <c r="AX127" s="8">
+      <c r="AX127" s="9"/>
+      <c r="AY127" s="9"/>
+      <c r="AZ127" s="9"/>
+      <c r="BA127" s="8">
         <v>124</v>
       </c>
-      <c r="AY127" s="4" t="s">
+      <c r="BB127" s="4" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="128" spans="45:51">
+    <row r="128" spans="45:54">
       <c r="AS128" s="2">
         <v>125</v>
       </c>
-      <c r="AT128" s="9" t="s">
+      <c r="AT128" s="18" t="s">
         <v>2592</v>
       </c>
       <c r="AU128" s="9"/>
       <c r="AV128" s="9"/>
       <c r="AW128" s="9"/>
-      <c r="AX128" s="8">
+      <c r="AX128" s="9"/>
+      <c r="AY128" s="9"/>
+      <c r="AZ128" s="9"/>
+      <c r="BA128" s="2">
         <v>125</v>
       </c>
-      <c r="AY128" s="4" t="s">
+      <c r="BB128" s="4" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="129" spans="45:51">
+    <row r="129" spans="45:54">
       <c r="AS129" s="2">
         <v>126</v>
       </c>
-      <c r="AT129" s="9" t="s">
+      <c r="AT129" s="18" t="s">
         <v>2591</v>
       </c>
       <c r="AU129" s="9"/>
       <c r="AV129" s="9"/>
       <c r="AW129" s="9"/>
-      <c r="AX129" s="8">
+      <c r="AX129" s="9"/>
+      <c r="AY129" s="9"/>
+      <c r="AZ129" s="9"/>
+      <c r="BA129" s="8">
         <v>126</v>
       </c>
-      <c r="AY129" s="4" t="s">
+      <c r="BB129" s="4" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="130" spans="45:51">
+    <row r="130" spans="45:54">
       <c r="AS130" s="2">
         <v>127</v>
       </c>
-      <c r="AT130" s="9" t="s">
+      <c r="AT130" s="18" t="s">
         <v>2590</v>
       </c>
       <c r="AU130" s="9"/>
       <c r="AV130" s="9"/>
       <c r="AW130" s="9"/>
-      <c r="AX130" s="8">
+      <c r="AX130" s="9"/>
+      <c r="AY130" s="9"/>
+      <c r="AZ130" s="9"/>
+      <c r="BA130" s="2">
         <v>127</v>
       </c>
-      <c r="AY130" s="4" t="s">
+      <c r="BB130" s="4" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="131" spans="45:51">
+    <row r="131" spans="45:54">
       <c r="AS131" s="2">
         <v>128</v>
       </c>
-      <c r="AT131" s="9" t="s">
+      <c r="AT131" s="18" t="s">
         <v>2589</v>
       </c>
       <c r="AU131" s="9"/>
       <c r="AV131" s="9"/>
       <c r="AW131" s="9"/>
-      <c r="AX131" s="8">
+      <c r="AX131" s="9"/>
+      <c r="AY131" s="9"/>
+      <c r="AZ131" s="9"/>
+      <c r="BA131" s="8">
         <v>128</v>
       </c>
-      <c r="AY131" s="4" t="s">
+      <c r="BB131" s="4" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="132" spans="45:51">
+    <row r="132" spans="45:54">
       <c r="AS132" s="2">
         <v>129</v>
       </c>
-      <c r="AT132" s="9" t="s">
+      <c r="AT132" s="18" t="s">
         <v>2588</v>
       </c>
       <c r="AU132" s="9"/>
       <c r="AV132" s="9"/>
       <c r="AW132" s="9"/>
-      <c r="AX132" s="8">
+      <c r="AX132" s="9"/>
+      <c r="AY132" s="9"/>
+      <c r="AZ132" s="9"/>
+      <c r="BA132" s="2">
         <v>129</v>
       </c>
-      <c r="AY132" s="4" t="s">
+      <c r="BB132" s="4" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="133" spans="45:51">
+    <row r="133" spans="45:54">
       <c r="AS133" s="2">
         <v>130</v>
       </c>
-      <c r="AT133" s="9" t="s">
+      <c r="AT133" s="18" t="s">
         <v>2587</v>
       </c>
       <c r="AU133" s="9"/>
       <c r="AV133" s="9"/>
       <c r="AW133" s="9"/>
-      <c r="AX133" s="8">
+      <c r="AX133" s="9"/>
+      <c r="AY133" s="9"/>
+      <c r="AZ133" s="9"/>
+      <c r="BA133" s="8">
         <v>130</v>
       </c>
-      <c r="AY133" s="4" t="s">
+      <c r="BB133" s="4" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="134" spans="45:51">
+    <row r="134" spans="45:54">
       <c r="AS134" s="2">
         <v>131</v>
       </c>
-      <c r="AT134" s="9" t="s">
+      <c r="AT134" s="18" t="s">
         <v>2586</v>
       </c>
       <c r="AU134" s="9"/>
       <c r="AV134" s="9"/>
       <c r="AW134" s="9"/>
-      <c r="AX134" s="8">
+      <c r="AX134" s="9"/>
+      <c r="AY134" s="9"/>
+      <c r="AZ134" s="9"/>
+      <c r="BA134" s="2">
         <v>131</v>
       </c>
-      <c r="AY134" s="4" t="s">
+      <c r="BB134" s="4" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="135" spans="45:51">
+    <row r="135" spans="45:54">
       <c r="AS135" s="2">
         <v>132</v>
       </c>
-      <c r="AT135" s="9" t="s">
+      <c r="AT135" s="18" t="s">
         <v>2585</v>
       </c>
       <c r="AU135" s="9"/>
       <c r="AV135" s="9"/>
       <c r="AW135" s="9"/>
-      <c r="AX135" s="8">
+      <c r="AX135" s="9"/>
+      <c r="AY135" s="9"/>
+      <c r="AZ135" s="9"/>
+      <c r="BA135" s="8">
         <v>132</v>
       </c>
-      <c r="AY135" s="4" t="s">
+      <c r="BB135" s="4" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="136" spans="45:51">
+    <row r="136" spans="45:54">
       <c r="AS136" s="2">
         <v>133</v>
       </c>
-      <c r="AT136" s="9" t="s">
+      <c r="AT136" s="18" t="s">
         <v>2584</v>
       </c>
       <c r="AU136" s="9"/>
       <c r="AV136" s="9"/>
       <c r="AW136" s="9"/>
-      <c r="AX136" s="8">
+      <c r="AX136" s="9"/>
+      <c r="AY136" s="9"/>
+      <c r="AZ136" s="9"/>
+      <c r="BA136" s="2">
         <v>133</v>
       </c>
-      <c r="AY136" s="4" t="s">
+      <c r="BB136" s="4" t="s">
         <v>1821</v>
       </c>
     </row>
-    <row r="137" spans="45:51">
+    <row r="137" spans="45:54">
       <c r="AS137" s="2">
         <v>134</v>
       </c>
-      <c r="AT137" s="9" t="s">
+      <c r="AT137" s="18" t="s">
         <v>2583</v>
       </c>
       <c r="AU137" s="9"/>
       <c r="AV137" s="9"/>
       <c r="AW137" s="9"/>
-      <c r="AX137" s="8">
+      <c r="AX137" s="9"/>
+      <c r="AY137" s="9"/>
+      <c r="AZ137" s="9"/>
+      <c r="BA137" s="8">
         <v>134</v>
       </c>
-      <c r="AY137" s="4" t="s">
+      <c r="BB137" s="4" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="138" spans="45:51">
+    <row r="138" spans="45:54">
       <c r="AS138" s="2">
         <v>135</v>
       </c>
-      <c r="AT138" s="9" t="s">
+      <c r="AT138" s="18" t="s">
         <v>2582</v>
       </c>
       <c r="AU138" s="9"/>
       <c r="AV138" s="9"/>
       <c r="AW138" s="9"/>
-      <c r="AX138" s="8">
+      <c r="AX138" s="9"/>
+      <c r="AY138" s="9"/>
+      <c r="AZ138" s="9"/>
+      <c r="BA138" s="2">
         <v>135</v>
       </c>
-      <c r="AY138" s="4" t="s">
+      <c r="BB138" s="4" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="139" spans="45:51">
+    <row r="139" spans="45:54">
       <c r="AS139" s="2">
         <v>136</v>
       </c>
-      <c r="AT139" s="9" t="s">
+      <c r="AT139" s="18" t="s">
         <v>2581</v>
       </c>
       <c r="AU139" s="9"/>
       <c r="AV139" s="9"/>
       <c r="AW139" s="9"/>
-      <c r="AX139" s="8">
+      <c r="AX139" s="9"/>
+      <c r="AY139" s="9"/>
+      <c r="AZ139" s="9"/>
+      <c r="BA139" s="8">
         <v>136</v>
       </c>
-      <c r="AY139" s="4" t="s">
+      <c r="BB139" s="4" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="140" spans="45:51">
+    <row r="140" spans="45:54">
       <c r="AS140" s="2">
         <v>137</v>
       </c>
-      <c r="AT140" s="9" t="s">
+      <c r="AT140" s="18" t="s">
         <v>2580</v>
       </c>
       <c r="AU140" s="9"/>
       <c r="AV140" s="9"/>
       <c r="AW140" s="9"/>
-      <c r="AX140" s="8">
+      <c r="AX140" s="9"/>
+      <c r="AY140" s="9"/>
+      <c r="AZ140" s="9"/>
+      <c r="BA140" s="2">
         <v>137</v>
       </c>
-      <c r="AY140" s="4" t="s">
+      <c r="BB140" s="4" t="s">
         <v>1824</v>
       </c>
     </row>
-    <row r="141" spans="45:51">
+    <row r="141" spans="45:54">
       <c r="AS141" s="2">
         <v>138</v>
       </c>
-      <c r="AT141" s="9" t="s">
+      <c r="AT141" s="18" t="s">
         <v>2499</v>
       </c>
       <c r="AU141" s="9"/>
       <c r="AV141" s="9"/>
       <c r="AW141" s="9"/>
-    </row>
-    <row r="142" spans="45:51">
+      <c r="AX141" s="9"/>
+      <c r="AY141" s="9"/>
+      <c r="AZ141" s="9"/>
+    </row>
+    <row r="142" spans="45:54">
       <c r="AS142" s="2">
         <v>139</v>
       </c>
-      <c r="AT142" s="9" t="s">
+      <c r="AT142" s="18" t="s">
         <v>2579</v>
       </c>
       <c r="AU142" s="9"/>
       <c r="AV142" s="9"/>
       <c r="AW142" s="9"/>
-    </row>
-    <row r="143" spans="45:51">
+      <c r="AX142" s="9"/>
+      <c r="AY142" s="9"/>
+      <c r="AZ142" s="9"/>
+    </row>
+    <row r="143" spans="45:54">
       <c r="AS143" s="2">
         <v>140</v>
       </c>
-      <c r="AT143" s="9" t="s">
+      <c r="AT143" s="18" t="s">
         <v>1759</v>
       </c>
       <c r="AU143" s="9"/>
       <c r="AV143" s="9"/>
       <c r="AW143" s="9"/>
-    </row>
-    <row r="144" spans="45:51">
+      <c r="AX143" s="9"/>
+      <c r="AY143" s="9"/>
+      <c r="AZ143" s="9"/>
+    </row>
+    <row r="144" spans="45:54">
       <c r="AS144" s="2">
         <v>141</v>
       </c>
-      <c r="AT144" s="9" t="s">
+      <c r="AT144" s="18" t="s">
         <v>2578</v>
       </c>
       <c r="AU144" s="9"/>
       <c r="AV144" s="9"/>
       <c r="AW144" s="9"/>
-    </row>
-    <row r="145" spans="45:49">
+      <c r="AX144" s="9"/>
+      <c r="AY144" s="9"/>
+      <c r="AZ144" s="9"/>
+    </row>
+    <row r="145" spans="45:52">
       <c r="AS145" s="2">
         <v>142</v>
       </c>
-      <c r="AT145" s="9" t="s">
+      <c r="AT145" s="18" t="s">
         <v>2577</v>
       </c>
       <c r="AU145" s="9"/>
       <c r="AV145" s="9"/>
       <c r="AW145" s="9"/>
-    </row>
-    <row r="146" spans="45:49">
+      <c r="AX145" s="9"/>
+      <c r="AY145" s="9"/>
+      <c r="AZ145" s="9"/>
+    </row>
+    <row r="146" spans="45:52">
       <c r="AS146" s="2">
         <v>143</v>
       </c>
-      <c r="AT146" s="9" t="s">
+      <c r="AT146" s="18" t="s">
         <v>2576</v>
       </c>
       <c r="AU146" s="9"/>
       <c r="AV146" s="9"/>
       <c r="AW146" s="9"/>
-    </row>
-    <row r="147" spans="45:49">
+      <c r="AX146" s="9"/>
+      <c r="AY146" s="9"/>
+      <c r="AZ146" s="9"/>
+    </row>
+    <row r="147" spans="45:52">
       <c r="AS147" s="2">
         <v>144</v>
       </c>
-      <c r="AT147" s="9" t="s">
+      <c r="AT147" s="18" t="s">
         <v>2575</v>
       </c>
       <c r="AU147" s="9"/>
       <c r="AV147" s="9"/>
       <c r="AW147" s="9"/>
-    </row>
-    <row r="148" spans="45:49">
+      <c r="AX147" s="9"/>
+      <c r="AY147" s="9"/>
+      <c r="AZ147" s="9"/>
+    </row>
+    <row r="148" spans="45:52">
       <c r="AS148" s="2">
         <v>145</v>
       </c>
-      <c r="AT148" s="9" t="s">
+      <c r="AT148" s="18" t="s">
         <v>2574</v>
       </c>
       <c r="AU148" s="9"/>
       <c r="AV148" s="9"/>
       <c r="AW148" s="9"/>
-    </row>
-    <row r="149" spans="45:49">
+      <c r="AX148" s="9"/>
+      <c r="AY148" s="9"/>
+      <c r="AZ148" s="9"/>
+    </row>
+    <row r="149" spans="45:52">
       <c r="AS149" s="2">
         <v>146</v>
       </c>
-      <c r="AT149" s="9" t="s">
+      <c r="AT149" s="18" t="s">
         <v>2573</v>
       </c>
       <c r="AU149" s="9"/>
       <c r="AV149" s="9"/>
       <c r="AW149" s="9"/>
-    </row>
-    <row r="150" spans="45:49">
+      <c r="AX149" s="9"/>
+      <c r="AY149" s="9"/>
+      <c r="AZ149" s="9"/>
+    </row>
+    <row r="150" spans="45:52">
       <c r="AS150" s="2">
         <v>147</v>
       </c>
-      <c r="AT150" s="9" t="s">
+      <c r="AT150" s="18" t="s">
         <v>2572</v>
       </c>
       <c r="AU150" s="9"/>
       <c r="AV150" s="9"/>
       <c r="AW150" s="9"/>
-    </row>
-    <row r="151" spans="45:49">
+      <c r="AX150" s="9"/>
+      <c r="AY150" s="9"/>
+      <c r="AZ150" s="9"/>
+    </row>
+    <row r="151" spans="45:52">
       <c r="AS151" s="2">
         <v>148</v>
       </c>
-      <c r="AT151" s="9" t="s">
+      <c r="AT151" s="18" t="s">
         <v>2571</v>
       </c>
       <c r="AU151" s="9"/>
       <c r="AV151" s="9"/>
       <c r="AW151" s="9"/>
-    </row>
-    <row r="152" spans="45:49">
+      <c r="AX151" s="9"/>
+      <c r="AY151" s="9"/>
+      <c r="AZ151" s="9"/>
+    </row>
+    <row r="152" spans="45:52">
       <c r="AS152" s="2">
         <v>149</v>
       </c>
-      <c r="AT152" s="9" t="s">
+      <c r="AT152" s="18" t="s">
         <v>2570</v>
       </c>
       <c r="AU152" s="9"/>
       <c r="AV152" s="9"/>
       <c r="AW152" s="9"/>
-    </row>
-    <row r="153" spans="45:49">
+      <c r="AX152" s="9"/>
+      <c r="AY152" s="9"/>
+      <c r="AZ152" s="9"/>
+    </row>
+    <row r="153" spans="45:52">
       <c r="AS153" s="2">
         <v>150</v>
       </c>
-      <c r="AT153" s="9" t="s">
+      <c r="AT153" s="18" t="s">
         <v>2569</v>
       </c>
       <c r="AU153" s="9"/>
       <c r="AV153" s="9"/>
       <c r="AW153" s="9"/>
-    </row>
-    <row r="154" spans="45:49">
+      <c r="AX153" s="9"/>
+      <c r="AY153" s="9"/>
+      <c r="AZ153" s="9"/>
+    </row>
+    <row r="154" spans="45:52">
       <c r="AS154" s="2">
         <v>151</v>
       </c>
-      <c r="AT154" s="9" t="s">
+      <c r="AT154" s="18" t="s">
         <v>2568</v>
       </c>
       <c r="AU154" s="9"/>
       <c r="AV154" s="9"/>
       <c r="AW154" s="9"/>
-    </row>
-    <row r="155" spans="45:49">
+      <c r="AX154" s="9"/>
+      <c r="AY154" s="9"/>
+      <c r="AZ154" s="9"/>
+    </row>
+    <row r="155" spans="45:52">
       <c r="AS155" s="2">
         <v>152</v>
       </c>
-      <c r="AT155" s="9" t="s">
+      <c r="AT155" s="18" t="s">
         <v>2567</v>
       </c>
       <c r="AU155" s="9"/>
       <c r="AV155" s="9"/>
       <c r="AW155" s="9"/>
-    </row>
-    <row r="156" spans="45:49">
+      <c r="AX155" s="9"/>
+      <c r="AY155" s="9"/>
+      <c r="AZ155" s="9"/>
+    </row>
+    <row r="156" spans="45:52">
       <c r="AS156" s="2">
         <v>153</v>
       </c>
-      <c r="AT156" s="9" t="s">
+      <c r="AT156" s="18" t="s">
         <v>2566</v>
       </c>
       <c r="AU156" s="9"/>
       <c r="AV156" s="9"/>
       <c r="AW156" s="9"/>
-    </row>
-    <row r="157" spans="45:49">
+      <c r="AX156" s="9"/>
+      <c r="AY156" s="9"/>
+      <c r="AZ156" s="9"/>
+    </row>
+    <row r="157" spans="45:52">
       <c r="AS157" s="2">
         <v>154</v>
       </c>
-      <c r="AT157" s="9" t="s">
+      <c r="AT157" s="18" t="s">
         <v>2565</v>
       </c>
       <c r="AU157" s="9"/>
       <c r="AV157" s="9"/>
       <c r="AW157" s="9"/>
-    </row>
-    <row r="158" spans="45:49">
+      <c r="AX157" s="9"/>
+      <c r="AY157" s="9"/>
+      <c r="AZ157" s="9"/>
+    </row>
+    <row r="158" spans="45:52">
       <c r="AS158" s="2">
         <v>155</v>
       </c>
-      <c r="AT158" s="9" t="s">
+      <c r="AT158" s="18" t="s">
         <v>896</v>
       </c>
       <c r="AU158" s="9"/>
       <c r="AV158" s="9"/>
       <c r="AW158" s="9"/>
-    </row>
-    <row r="159" spans="45:49">
+      <c r="AX158" s="9"/>
+      <c r="AY158" s="9"/>
+      <c r="AZ158" s="9"/>
+    </row>
+    <row r="159" spans="45:52">
       <c r="AS159" s="2">
         <v>156</v>
       </c>
-      <c r="AT159" s="9" t="s">
+      <c r="AT159" s="18" t="s">
         <v>2564</v>
       </c>
       <c r="AU159" s="9"/>
       <c r="AV159" s="9"/>
       <c r="AW159" s="9"/>
-    </row>
-    <row r="160" spans="45:49">
+      <c r="AX159" s="9"/>
+      <c r="AY159" s="9"/>
+      <c r="AZ159" s="9"/>
+    </row>
+    <row r="160" spans="45:52">
       <c r="AS160" s="2">
         <v>157</v>
       </c>
-      <c r="AT160" s="9" t="s">
+      <c r="AT160" s="18" t="s">
         <v>2563</v>
       </c>
       <c r="AU160" s="9"/>
       <c r="AV160" s="9"/>
       <c r="AW160" s="9"/>
-    </row>
-    <row r="161" spans="45:50">
+      <c r="AX160" s="9"/>
+      <c r="AY160" s="9"/>
+      <c r="AZ160" s="9"/>
+    </row>
+    <row r="161" spans="45:53">
       <c r="AS161" s="2">
         <v>158</v>
       </c>
-      <c r="AT161" s="9" t="s">
+      <c r="AT161" s="18" t="s">
         <v>2562</v>
       </c>
       <c r="AU161" s="9"/>
       <c r="AV161" s="9"/>
       <c r="AW161" s="9"/>
-    </row>
-    <row r="162" spans="45:50">
+      <c r="AX161" s="9"/>
+      <c r="AY161" s="9"/>
+      <c r="AZ161" s="9"/>
+    </row>
+    <row r="162" spans="45:53">
       <c r="AS162" s="2">
         <v>159</v>
       </c>
-      <c r="AT162" s="9" t="s">
+      <c r="AT162" s="18" t="s">
         <v>2561</v>
       </c>
       <c r="AU162" s="9"/>
       <c r="AV162" s="9"/>
       <c r="AW162" s="9"/>
-      <c r="AX162" s="8"/>
-    </row>
-    <row r="163" spans="45:50">
+      <c r="AX162" s="9"/>
+      <c r="AY162" s="9"/>
+      <c r="AZ162" s="9"/>
+      <c r="BA162" s="8"/>
+    </row>
+    <row r="163" spans="45:53">
       <c r="AS163" s="2">
         <v>160</v>
       </c>
-      <c r="AT163" s="9" t="s">
+      <c r="AT163" s="18" t="s">
         <v>2560</v>
       </c>
       <c r="AU163" s="9"/>
       <c r="AV163" s="9"/>
       <c r="AW163" s="9"/>
-      <c r="AX163" s="8"/>
-    </row>
-    <row r="164" spans="45:50">
+      <c r="AX163" s="9"/>
+      <c r="AY163" s="9"/>
+      <c r="AZ163" s="9"/>
+      <c r="BA163" s="8"/>
+    </row>
+    <row r="164" spans="45:53">
       <c r="AS164" s="2">
         <v>161</v>
       </c>
-      <c r="AT164" s="9" t="s">
+      <c r="AT164" s="18" t="s">
         <v>2559</v>
       </c>
       <c r="AU164" s="9"/>
       <c r="AV164" s="9"/>
       <c r="AW164" s="9"/>
-      <c r="AX164" s="8"/>
-    </row>
-    <row r="165" spans="45:50">
+      <c r="AX164" s="9"/>
+      <c r="AY164" s="9"/>
+      <c r="AZ164" s="9"/>
+      <c r="BA164" s="8"/>
+    </row>
+    <row r="165" spans="45:53">
       <c r="AS165" s="2">
         <v>162</v>
       </c>
-      <c r="AT165" s="9" t="s">
+      <c r="AT165" s="18" t="s">
         <v>2558</v>
       </c>
       <c r="AU165" s="9"/>
       <c r="AV165" s="9"/>
       <c r="AW165" s="9"/>
-      <c r="AX165" s="8"/>
-    </row>
-    <row r="166" spans="45:50">
+      <c r="AX165" s="9"/>
+      <c r="AY165" s="9"/>
+      <c r="AZ165" s="9"/>
+      <c r="BA165" s="8"/>
+    </row>
+    <row r="166" spans="45:53">
       <c r="AS166" s="2">
         <v>163</v>
       </c>
-      <c r="AT166" s="9" t="s">
+      <c r="AT166" s="18" t="s">
         <v>2557</v>
       </c>
       <c r="AU166" s="9"/>
       <c r="AV166" s="9"/>
       <c r="AW166" s="9"/>
-      <c r="AX166" s="8"/>
-    </row>
-    <row r="167" spans="45:50">
+      <c r="AX166" s="9"/>
+      <c r="AY166" s="9"/>
+      <c r="AZ166" s="9"/>
+      <c r="BA166" s="8"/>
+    </row>
+    <row r="167" spans="45:53">
       <c r="AS167" s="2">
         <v>164</v>
       </c>
-      <c r="AT167" s="9" t="s">
+      <c r="AT167" s="18" t="s">
         <v>2556</v>
       </c>
       <c r="AU167" s="9"/>
       <c r="AV167" s="9"/>
       <c r="AW167" s="9"/>
-      <c r="AX167" s="8"/>
-    </row>
-    <row r="168" spans="45:50">
+      <c r="AX167" s="9"/>
+      <c r="AY167" s="9"/>
+      <c r="AZ167" s="9"/>
+      <c r="BA167" s="8"/>
+    </row>
+    <row r="168" spans="45:53">
       <c r="AS168" s="2">
         <v>165</v>
       </c>
-      <c r="AT168" s="9" t="s">
+      <c r="AT168" s="18" t="s">
         <v>2555</v>
       </c>
       <c r="AU168" s="9"/>
       <c r="AV168" s="9"/>
       <c r="AW168" s="9"/>
-      <c r="AX168" s="8"/>
-    </row>
-    <row r="169" spans="45:50">
+      <c r="AX168" s="9"/>
+      <c r="AY168" s="9"/>
+      <c r="AZ168" s="9"/>
+      <c r="BA168" s="8"/>
+    </row>
+    <row r="169" spans="45:53">
       <c r="AS169" s="2">
         <v>166</v>
       </c>
-      <c r="AT169" s="9" t="s">
+      <c r="AT169" s="18" t="s">
         <v>2554</v>
       </c>
       <c r="AU169" s="9"/>
       <c r="AV169" s="9"/>
       <c r="AW169" s="9"/>
-      <c r="AX169" s="8"/>
-    </row>
-    <row r="170" spans="45:50">
+      <c r="AX169" s="9"/>
+      <c r="AY169" s="9"/>
+      <c r="AZ169" s="9"/>
+      <c r="BA169" s="8"/>
+    </row>
+    <row r="170" spans="45:53">
       <c r="AS170" s="2">
         <v>167</v>
       </c>
-      <c r="AT170" s="9" t="s">
+      <c r="AT170" s="18" t="s">
         <v>2553</v>
       </c>
       <c r="AU170" s="9"/>
       <c r="AV170" s="9"/>
       <c r="AW170" s="9"/>
-      <c r="AX170" s="8"/>
-    </row>
-    <row r="171" spans="45:50">
+      <c r="AX170" s="9"/>
+      <c r="AY170" s="9"/>
+      <c r="AZ170" s="9"/>
+      <c r="BA170" s="8"/>
+    </row>
+    <row r="171" spans="45:53">
       <c r="AS171" s="2">
         <v>168</v>
       </c>
-      <c r="AT171" s="9" t="s">
+      <c r="AT171" s="18" t="s">
         <v>1131</v>
       </c>
       <c r="AU171" s="9"/>
       <c r="AV171" s="9"/>
       <c r="AW171" s="9"/>
-      <c r="AX171" s="8"/>
-    </row>
-    <row r="172" spans="45:50">
+      <c r="AX171" s="9"/>
+      <c r="AY171" s="9"/>
+      <c r="AZ171" s="9"/>
+      <c r="BA171" s="8"/>
+    </row>
+    <row r="172" spans="45:53">
       <c r="AS172" s="2">
         <v>169</v>
       </c>
-      <c r="AT172" s="9" t="s">
+      <c r="AT172" s="18" t="s">
         <v>2552</v>
       </c>
       <c r="AU172" s="9"/>
       <c r="AV172" s="9"/>
       <c r="AW172" s="9"/>
-      <c r="AX172" s="8"/>
-    </row>
-    <row r="173" spans="45:50">
+      <c r="AX172" s="9"/>
+      <c r="AY172" s="9"/>
+      <c r="AZ172" s="9"/>
+      <c r="BA172" s="8"/>
+    </row>
+    <row r="173" spans="45:53">
       <c r="AS173" s="2">
         <v>170</v>
       </c>
-      <c r="AT173" s="9" t="s">
+      <c r="AT173" s="18" t="s">
         <v>2551</v>
       </c>
       <c r="AU173" s="9"/>
       <c r="AV173" s="9"/>
       <c r="AW173" s="9"/>
-      <c r="AX173" s="8"/>
-    </row>
-    <row r="174" spans="45:50">
+      <c r="AX173" s="9"/>
+      <c r="AY173" s="9"/>
+      <c r="AZ173" s="9"/>
+      <c r="BA173" s="8"/>
+    </row>
+    <row r="174" spans="45:53">
       <c r="AS174" s="2">
         <v>171</v>
       </c>
-      <c r="AT174" s="9" t="s">
+      <c r="AT174" s="18" t="s">
         <v>2550</v>
       </c>
       <c r="AU174" s="9"/>
       <c r="AV174" s="9"/>
       <c r="AW174" s="9"/>
-      <c r="AX174" s="8"/>
-    </row>
-    <row r="175" spans="45:50">
+      <c r="AX174" s="9"/>
+      <c r="AY174" s="9"/>
+      <c r="AZ174" s="9"/>
+      <c r="BA174" s="8"/>
+    </row>
+    <row r="175" spans="45:53">
       <c r="AS175" s="2">
         <v>172</v>
       </c>
-      <c r="AT175" s="9" t="s">
+      <c r="AT175" s="18" t="s">
         <v>2549</v>
       </c>
       <c r="AU175" s="9"/>
       <c r="AV175" s="9"/>
       <c r="AW175" s="9"/>
-      <c r="AX175" s="8"/>
-    </row>
-    <row r="176" spans="45:50">
+      <c r="AX175" s="9"/>
+      <c r="AY175" s="9"/>
+      <c r="AZ175" s="9"/>
+      <c r="BA175" s="8"/>
+    </row>
+    <row r="176" spans="45:53">
       <c r="AS176" s="2">
         <v>173</v>
       </c>
-      <c r="AT176" s="9" t="s">
+      <c r="AT176" s="18" t="s">
         <v>2548</v>
       </c>
       <c r="AU176" s="9"/>
       <c r="AV176" s="9"/>
       <c r="AW176" s="9"/>
-      <c r="AX176" s="8"/>
+      <c r="AX176" s="9"/>
+      <c r="AY176" s="9"/>
+      <c r="AZ176" s="9"/>
+      <c r="BA176" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="AN1:BE1"/>
-    <mergeCell ref="BG1:BK1"/>
+    <mergeCell ref="AN1:BH1"/>
+    <mergeCell ref="BJ1:BN1"/>
     <mergeCell ref="AA4:AA7"/>
     <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="V4:V6"/>
+    <mergeCell ref="AZ4:AZ7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
